--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_23.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_24_23.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-480110.1056419839</v>
+        <v>-480737.1480649113</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>15146261.88862854</v>
+        <v>15146261.88862855</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>504792.0292736551</v>
+        <v>504792.0292736555</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>123.8029158809986</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>4.260172663733163</v>
       </c>
       <c r="U11" t="n">
-        <v>36.72024109999213</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>118.0349185126515</v>
+        <v>118.0349185126519</v>
       </c>
       <c r="W11" t="n">
-        <v>143.3350179906084</v>
+        <v>6.698048486531519</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
     </row>
     <row r="12">
@@ -1503,13 +1503,13 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0.7169426335313355</v>
+        <v>0.7169426335317334</v>
       </c>
       <c r="V12" t="n">
-        <v>10.5371034757828</v>
+        <v>10.5371034757832</v>
       </c>
       <c r="W12" t="n">
-        <v>23.32814722865649</v>
+        <v>23.32814722865689</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>14.27407766563935</v>
+        <v>14.27407766563975</v>
       </c>
       <c r="U13" t="n">
-        <v>68.73102716155469</v>
+        <v>68.73102716155509</v>
       </c>
       <c r="V13" t="n">
-        <v>42.55338854679505</v>
+        <v>42.55338854679545</v>
       </c>
       <c r="W13" t="n">
-        <v>67.72027461740831</v>
+        <v>67.72027461740871</v>
       </c>
       <c r="X13" t="n">
-        <v>13.36537661321142</v>
+        <v>13.36537661321182</v>
       </c>
       <c r="Y13" t="n">
-        <v>4.240244369279111</v>
+        <v>4.240244369279509</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>88.01272589919054</v>
+        <v>130.1399364160068</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1613,16 +1613,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="F14" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>108.5829390575863</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>4.260172663732908</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>36.72024109999227</v>
+        <v>36.72024109999258</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1670,10 +1670,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="Y14" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1740,13 +1740,13 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0.7169426335314776</v>
+        <v>0.7169426335317902</v>
       </c>
       <c r="V15" t="n">
-        <v>10.53710347578294</v>
+        <v>10.53710347578325</v>
       </c>
       <c r="W15" t="n">
-        <v>23.32814722865663</v>
+        <v>23.32814722865695</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>14.27407766563949</v>
+        <v>14.2740776656398</v>
       </c>
       <c r="U16" t="n">
-        <v>68.73102716155483</v>
+        <v>68.73102716155515</v>
       </c>
       <c r="V16" t="n">
-        <v>42.55338854679519</v>
+        <v>42.5533885467955</v>
       </c>
       <c r="W16" t="n">
-        <v>67.72027461740845</v>
+        <v>67.72027461740876</v>
       </c>
       <c r="X16" t="n">
-        <v>13.36537661321157</v>
+        <v>13.36537661321188</v>
       </c>
       <c r="Y16" t="n">
-        <v>4.240244369279253</v>
+        <v>4.240244369279566</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>65.94560221488655</v>
+        <v>65.94560221488683</v>
       </c>
       <c r="C17" t="n">
-        <v>53.95691917256829</v>
+        <v>53.95691917256858</v>
       </c>
       <c r="D17" t="n">
-        <v>44.93822321709627</v>
+        <v>44.93822321709655</v>
       </c>
       <c r="E17" t="n">
-        <v>66.6803607870018</v>
+        <v>66.68036078700209</v>
       </c>
       <c r="F17" t="n">
-        <v>85.85217687497897</v>
+        <v>85.85217687497925</v>
       </c>
       <c r="G17" t="n">
-        <v>87.26445761256149</v>
+        <v>87.26445761256177</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2.806643806252396e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>9.451979455065668</v>
+        <v>9.451979455065953</v>
       </c>
       <c r="W17" t="n">
-        <v>34.75207893302257</v>
+        <v>34.75207893302286</v>
       </c>
       <c r="X17" t="n">
-        <v>54.05233716576919</v>
+        <v>54.05233716576947</v>
       </c>
       <c r="Y17" t="n">
-        <v>65.44893496196795</v>
+        <v>65.44893496196823</v>
       </c>
     </row>
     <row r="18">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>65.94560221488655</v>
+        <v>65.94560221488683</v>
       </c>
       <c r="C20" t="n">
-        <v>53.95691917256829</v>
+        <v>53.95691917256858</v>
       </c>
       <c r="D20" t="n">
-        <v>44.93822321709627</v>
+        <v>44.93822321709655</v>
       </c>
       <c r="E20" t="n">
-        <v>66.6803607870018</v>
+        <v>66.68036078700209</v>
       </c>
       <c r="F20" t="n">
-        <v>85.85217687497897</v>
+        <v>85.85217687497925</v>
       </c>
       <c r="G20" t="n">
-        <v>87.26445761256149</v>
+        <v>87.26445761256177</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>9.451979455065668</v>
+        <v>9.451979455065953</v>
       </c>
       <c r="W20" t="n">
-        <v>34.75207893302257</v>
+        <v>34.75207893302286</v>
       </c>
       <c r="X20" t="n">
-        <v>54.05233716576919</v>
+        <v>54.05233716576947</v>
       </c>
       <c r="Y20" t="n">
-        <v>65.44893496196795</v>
+        <v>65.44893496196823</v>
       </c>
     </row>
     <row r="21">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>65.94560221488643</v>
+        <v>65.94560221488683</v>
       </c>
       <c r="C23" t="n">
-        <v>53.95691917256818</v>
+        <v>53.95691917256858</v>
       </c>
       <c r="D23" t="n">
-        <v>44.93822321709615</v>
+        <v>44.93822321709655</v>
       </c>
       <c r="E23" t="n">
-        <v>66.68036078700169</v>
+        <v>66.68036078700209</v>
       </c>
       <c r="F23" t="n">
-        <v>85.85217687497885</v>
+        <v>85.85217687497925</v>
       </c>
       <c r="G23" t="n">
-        <v>87.26445761256137</v>
+        <v>87.26445761256177</v>
       </c>
       <c r="H23" t="n">
-        <v>-1.13686837721616e-13</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>9.451979455065555</v>
+        <v>9.451979455065953</v>
       </c>
       <c r="W23" t="n">
-        <v>34.75207893302246</v>
+        <v>34.75207893302286</v>
       </c>
       <c r="X23" t="n">
-        <v>54.05233716576907</v>
+        <v>54.05233716576947</v>
       </c>
       <c r="Y23" t="n">
-        <v>65.44893496196784</v>
+        <v>65.44893496196823</v>
       </c>
     </row>
     <row r="24">
@@ -2555,22 +2555,22 @@
         <v>216.6184134117435</v>
       </c>
       <c r="C26" t="n">
-        <v>204.6297303694253</v>
+        <v>204.6297303694252</v>
       </c>
       <c r="D26" t="n">
-        <v>195.6110344139533</v>
+        <v>195.6110344139532</v>
       </c>
       <c r="E26" t="n">
-        <v>217.3531719838588</v>
+        <v>217.3531719838587</v>
       </c>
       <c r="F26" t="n">
-        <v>236.524988071836</v>
+        <v>236.5249880718359</v>
       </c>
       <c r="G26" t="n">
-        <v>237.9372688094185</v>
+        <v>237.9372688094184</v>
       </c>
       <c r="H26" t="n">
-        <v>150.672811196857</v>
+        <v>150.6728111968569</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,22 +2603,22 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>1.35003119794419e-13</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>46.35004480300393</v>
+        <v>46.35004480300388</v>
       </c>
       <c r="U26" t="n">
-        <v>78.8101132392633</v>
+        <v>78.81011323926325</v>
       </c>
       <c r="V26" t="n">
-        <v>160.1247906519227</v>
+        <v>160.1247906519226</v>
       </c>
       <c r="W26" t="n">
-        <v>185.4248901298796</v>
+        <v>185.4248901298795</v>
       </c>
       <c r="X26" t="n">
-        <v>204.7251483626262</v>
+        <v>204.7251483626261</v>
       </c>
       <c r="Y26" t="n">
         <v>216.1217461588249</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>12.18999306596251</v>
+        <v>12.18999306596245</v>
       </c>
       <c r="U27" t="n">
-        <v>42.8068147728025</v>
+        <v>42.80681477280245</v>
       </c>
       <c r="V27" t="n">
-        <v>52.62697561505396</v>
+        <v>52.62697561505391</v>
       </c>
       <c r="W27" t="n">
-        <v>65.41801936792766</v>
+        <v>65.4180193679276</v>
       </c>
       <c r="X27" t="n">
-        <v>22.45312752988795</v>
+        <v>22.45312752988789</v>
       </c>
       <c r="Y27" t="n">
-        <v>17.11142237582155</v>
+        <v>17.11142237582149</v>
       </c>
     </row>
     <row r="28">
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>8.235124286440623</v>
+        <v>8.235124286440566</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>34.01527457283499</v>
+        <v>34.01527457283493</v>
       </c>
       <c r="T28" t="n">
-        <v>56.36394980491051</v>
+        <v>56.36394980491045</v>
       </c>
       <c r="U28" t="n">
-        <v>110.8208993008259</v>
+        <v>110.8208993008258</v>
       </c>
       <c r="V28" t="n">
-        <v>84.64326068606621</v>
+        <v>84.64326068606616</v>
       </c>
       <c r="W28" t="n">
-        <v>109.8101467566795</v>
+        <v>109.8101467566794</v>
       </c>
       <c r="X28" t="n">
-        <v>55.45524875248259</v>
+        <v>55.45524875248253</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.33011650855028</v>
+        <v>46.33011650855022</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>46.3500448030038</v>
+        <v>46.35004480300379</v>
       </c>
       <c r="U29" t="n">
         <v>78.81011323926316</v>
@@ -2998,10 +2998,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>34.01527457283486</v>
+        <v>34.01527457283485</v>
       </c>
       <c r="T31" t="n">
-        <v>56.36394980491038</v>
+        <v>56.36394980491037</v>
       </c>
       <c r="U31" t="n">
         <v>110.8208993008257</v>
@@ -3029,22 +3029,22 @@
         <v>216.6184134117435</v>
       </c>
       <c r="C32" t="n">
-        <v>204.6297303694252</v>
+        <v>204.6297303694253</v>
       </c>
       <c r="D32" t="n">
-        <v>195.6110344139532</v>
+        <v>195.6110344139533</v>
       </c>
       <c r="E32" t="n">
-        <v>217.3531719838587</v>
+        <v>217.3531719838588</v>
       </c>
       <c r="F32" t="n">
-        <v>236.5249880718359</v>
+        <v>236.524988071836</v>
       </c>
       <c r="G32" t="n">
-        <v>237.9372688094184</v>
+        <v>237.9372688094185</v>
       </c>
       <c r="H32" t="n">
-        <v>150.6728111968569</v>
+        <v>150.672811196857</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3080,19 +3080,19 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>46.35004480300387</v>
+        <v>46.35004480300393</v>
       </c>
       <c r="U32" t="n">
-        <v>78.81011323926325</v>
+        <v>78.8101132392633</v>
       </c>
       <c r="V32" t="n">
-        <v>160.1247906519226</v>
+        <v>160.1247906519227</v>
       </c>
       <c r="W32" t="n">
-        <v>185.4248901298795</v>
+        <v>185.4248901298796</v>
       </c>
       <c r="X32" t="n">
-        <v>204.7251483626261</v>
+        <v>204.7251483626262</v>
       </c>
       <c r="Y32" t="n">
         <v>216.1217461588249</v>
@@ -3159,22 +3159,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>12.18999306596245</v>
+        <v>12.18999306596251</v>
       </c>
       <c r="U33" t="n">
-        <v>42.80681477280245</v>
+        <v>42.8068147728025</v>
       </c>
       <c r="V33" t="n">
-        <v>52.62697561505391</v>
+        <v>52.62697561505396</v>
       </c>
       <c r="W33" t="n">
-        <v>65.4180193679276</v>
+        <v>65.41801936792766</v>
       </c>
       <c r="X33" t="n">
-        <v>22.45312752988789</v>
+        <v>22.45312752988795</v>
       </c>
       <c r="Y33" t="n">
-        <v>17.11142237582149</v>
+        <v>17.11142237582155</v>
       </c>
     </row>
     <row r="34">
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>8.235124286440566</v>
+        <v>8.235124286440623</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>34.01527457283493</v>
+        <v>34.01527457283499</v>
       </c>
       <c r="T34" t="n">
-        <v>56.36394980491045</v>
+        <v>56.36394980491051</v>
       </c>
       <c r="U34" t="n">
-        <v>110.8208993008258</v>
+        <v>110.8208993008259</v>
       </c>
       <c r="V34" t="n">
-        <v>84.64326068606616</v>
+        <v>84.64326068606621</v>
       </c>
       <c r="W34" t="n">
-        <v>109.8101467566794</v>
+        <v>109.8101467566795</v>
       </c>
       <c r="X34" t="n">
-        <v>55.45524875248253</v>
+        <v>55.45524875248259</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.33011650855022</v>
+        <v>46.33011650855028</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>172.8997156890575</v>
+        <v>172.8997156890572</v>
       </c>
       <c r="C35" t="n">
-        <v>160.9110326467393</v>
+        <v>160.911032646739</v>
       </c>
       <c r="D35" t="n">
-        <v>151.8923366912672</v>
+        <v>151.8923366912669</v>
       </c>
       <c r="E35" t="n">
-        <v>173.6344742611728</v>
+        <v>173.6344742611725</v>
       </c>
       <c r="F35" t="n">
-        <v>192.8062903491499</v>
+        <v>192.8062903491496</v>
       </c>
       <c r="G35" t="n">
-        <v>194.2185710867325</v>
+        <v>194.2185710867322</v>
       </c>
       <c r="H35" t="n">
-        <v>106.954113474171</v>
+        <v>106.9541134741707</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3317,22 +3317,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>2.631347080317914</v>
+        <v>2.631347080317601</v>
       </c>
       <c r="U35" t="n">
-        <v>35.09141551657728</v>
+        <v>35.09141551657697</v>
       </c>
       <c r="V35" t="n">
-        <v>116.4060929292366</v>
+        <v>116.4060929292363</v>
       </c>
       <c r="W35" t="n">
-        <v>141.7061924071936</v>
+        <v>141.7061924071932</v>
       </c>
       <c r="X35" t="n">
-        <v>161.0064506399402</v>
+        <v>161.0064506399399</v>
       </c>
       <c r="Y35" t="n">
-        <v>172.4030484361389</v>
+        <v>172.4030484361386</v>
       </c>
     </row>
     <row r="36">
@@ -3402,10 +3402,10 @@
         <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>8.908277892367948</v>
+        <v>8.908277892367636</v>
       </c>
       <c r="W36" t="n">
-        <v>21.69932164524164</v>
+        <v>21.69932164524133</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3475,22 +3475,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>12.6452520822245</v>
+        <v>12.64525208222418</v>
       </c>
       <c r="U37" t="n">
-        <v>67.10220157813984</v>
+        <v>67.10220157813953</v>
       </c>
       <c r="V37" t="n">
-        <v>40.9245629633802</v>
+        <v>40.92456296337988</v>
       </c>
       <c r="W37" t="n">
-        <v>66.09144903399346</v>
+        <v>66.09144903399314</v>
       </c>
       <c r="X37" t="n">
-        <v>11.73655102979657</v>
+        <v>11.73655102979626</v>
       </c>
       <c r="Y37" t="n">
-        <v>2.611418785864259</v>
+        <v>2.611418785863947</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>172.8997156890576</v>
+        <v>172.8997156890572</v>
       </c>
       <c r="C38" t="n">
-        <v>160.9110326467394</v>
+        <v>160.911032646739</v>
       </c>
       <c r="D38" t="n">
-        <v>151.8923366912673</v>
+        <v>151.8923366912669</v>
       </c>
       <c r="E38" t="n">
-        <v>173.6344742611729</v>
+        <v>173.6344742611725</v>
       </c>
       <c r="F38" t="n">
-        <v>192.80629034915</v>
+        <v>192.8062903491496</v>
       </c>
       <c r="G38" t="n">
-        <v>194.2185710867326</v>
+        <v>194.2185710867322</v>
       </c>
       <c r="H38" t="n">
-        <v>106.9541134741711</v>
+        <v>106.9541134741707</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3554,22 +3554,22 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>2.631347080317999</v>
+        <v>2.631347080317601</v>
       </c>
       <c r="U38" t="n">
-        <v>35.09141551657736</v>
+        <v>35.09141551657697</v>
       </c>
       <c r="V38" t="n">
-        <v>116.4060929292367</v>
+        <v>116.4060929292363</v>
       </c>
       <c r="W38" t="n">
-        <v>141.7061924071936</v>
+        <v>141.7061924071932</v>
       </c>
       <c r="X38" t="n">
-        <v>161.0064506399403</v>
+        <v>161.0064506399399</v>
       </c>
       <c r="Y38" t="n">
-        <v>172.403048436139</v>
+        <v>172.4030484361386</v>
       </c>
     </row>
     <row r="39">
@@ -3639,10 +3639,10 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>8.908277892368034</v>
+        <v>8.908277892367636</v>
       </c>
       <c r="W39" t="n">
-        <v>21.69932164524172</v>
+        <v>21.69932164524133</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3712,22 +3712,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>12.64525208222458</v>
+        <v>12.64525208222418</v>
       </c>
       <c r="U40" t="n">
-        <v>67.10220157813993</v>
+        <v>67.10220157813953</v>
       </c>
       <c r="V40" t="n">
-        <v>40.92456296338028</v>
+        <v>40.92456296337988</v>
       </c>
       <c r="W40" t="n">
-        <v>66.09144903399354</v>
+        <v>66.09144903399314</v>
       </c>
       <c r="X40" t="n">
-        <v>11.73655102979666</v>
+        <v>11.73655102979626</v>
       </c>
       <c r="Y40" t="n">
-        <v>2.611418785864345</v>
+        <v>2.611418785863947</v>
       </c>
     </row>
     <row r="41">
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>172.8997156890575</v>
+        <v>172.8997156890572</v>
       </c>
       <c r="C41" t="n">
-        <v>160.9110326467392</v>
+        <v>160.911032646739</v>
       </c>
       <c r="D41" t="n">
-        <v>151.8923366912672</v>
+        <v>151.8923366912669</v>
       </c>
       <c r="E41" t="n">
-        <v>173.6344742611728</v>
+        <v>173.6344742611725</v>
       </c>
       <c r="F41" t="n">
-        <v>192.8062903491499</v>
+        <v>192.8062903491496</v>
       </c>
       <c r="G41" t="n">
-        <v>194.2185710867325</v>
+        <v>194.2185710867322</v>
       </c>
       <c r="H41" t="n">
-        <v>106.954113474171</v>
+        <v>106.9541134741707</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3791,22 +3791,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>2.631347080317886</v>
+        <v>2.631347080317601</v>
       </c>
       <c r="U41" t="n">
-        <v>35.09141551657725</v>
+        <v>35.09141551657697</v>
       </c>
       <c r="V41" t="n">
-        <v>116.4060929292366</v>
+        <v>116.4060929292363</v>
       </c>
       <c r="W41" t="n">
-        <v>141.7061924071935</v>
+        <v>141.7061924071932</v>
       </c>
       <c r="X41" t="n">
-        <v>161.0064506399401</v>
+        <v>161.0064506399399</v>
       </c>
       <c r="Y41" t="n">
-        <v>172.4030484361389</v>
+        <v>172.4030484361386</v>
       </c>
     </row>
     <row r="42">
@@ -3876,10 +3876,10 @@
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>8.90827789236792</v>
+        <v>8.908277892367636</v>
       </c>
       <c r="W42" t="n">
-        <v>21.69932164524161</v>
+        <v>21.69932164524133</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3949,22 +3949,22 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>12.64525208222447</v>
+        <v>12.64525208222418</v>
       </c>
       <c r="U43" t="n">
-        <v>67.10220157813981</v>
+        <v>67.10220157813953</v>
       </c>
       <c r="V43" t="n">
-        <v>40.92456296338017</v>
+        <v>40.92456296337988</v>
       </c>
       <c r="W43" t="n">
-        <v>66.09144903399343</v>
+        <v>66.09144903399314</v>
       </c>
       <c r="X43" t="n">
-        <v>11.73655102979654</v>
+        <v>11.73655102979626</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.611418785864231</v>
+        <v>2.611418785863947</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172.8997156890575</v>
+        <v>172.8997156890572</v>
       </c>
       <c r="C44" t="n">
-        <v>160.9110326467392</v>
+        <v>160.911032646739</v>
       </c>
       <c r="D44" t="n">
-        <v>151.8923366912672</v>
+        <v>151.892336691267</v>
       </c>
       <c r="E44" t="n">
-        <v>173.6344742611728</v>
+        <v>173.6344742611725</v>
       </c>
       <c r="F44" t="n">
-        <v>192.8062903491499</v>
+        <v>192.8062903491497</v>
       </c>
       <c r="G44" t="n">
-        <v>194.2185710867325</v>
+        <v>194.2185710867322</v>
       </c>
       <c r="H44" t="n">
-        <v>106.954113474171</v>
+        <v>106.9541134741707</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4028,22 +4028,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>2.631347080317886</v>
+        <v>2.63134708031763</v>
       </c>
       <c r="U44" t="n">
-        <v>35.09141551657725</v>
+        <v>35.09141551657699</v>
       </c>
       <c r="V44" t="n">
-        <v>116.4060929292366</v>
+        <v>116.4060929292364</v>
       </c>
       <c r="W44" t="n">
-        <v>141.7061924071935</v>
+        <v>141.7061924071933</v>
       </c>
       <c r="X44" t="n">
-        <v>161.0064506399401</v>
+        <v>161.0064506399399</v>
       </c>
       <c r="Y44" t="n">
-        <v>172.4030484361389</v>
+        <v>172.4030484361386</v>
       </c>
     </row>
     <row r="45">
@@ -4113,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>8.90827789236792</v>
+        <v>8.908277892367664</v>
       </c>
       <c r="W45" t="n">
-        <v>21.69932164524161</v>
+        <v>21.69932164524135</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4186,22 +4186,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>12.64525208222447</v>
+        <v>12.64525208222421</v>
       </c>
       <c r="U46" t="n">
-        <v>67.10220157813981</v>
+        <v>67.10220157813956</v>
       </c>
       <c r="V46" t="n">
-        <v>40.92456296338017</v>
+        <v>40.92456296337991</v>
       </c>
       <c r="W46" t="n">
-        <v>66.09144903399343</v>
+        <v>66.09144903399317</v>
       </c>
       <c r="X46" t="n">
-        <v>11.73655102979654</v>
+        <v>11.73655102979629</v>
       </c>
       <c r="Y46" t="n">
-        <v>2.611418785864231</v>
+        <v>2.611418785863975</v>
       </c>
     </row>
   </sheetData>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.6452677595882</v>
+        <v>159.6452677595892</v>
       </c>
       <c r="C11" t="n">
-        <v>159.6452677595882</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6452677595882</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E11" t="n">
-        <v>159.6452677595882</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F11" t="n">
-        <v>159.6452677595882</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G11" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H11" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I11" t="n">
-        <v>75.64118274439161</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J11" t="n">
-        <v>75.64118274439161</v>
+        <v>123.2819685389583</v>
       </c>
       <c r="K11" t="n">
-        <v>75.64118274439161</v>
+        <v>225.2748170556772</v>
       </c>
       <c r="L11" t="n">
-        <v>180.8089143389576</v>
+        <v>330.4425486502428</v>
       </c>
       <c r="M11" t="n">
-        <v>180.8089143389576</v>
+        <v>330.4425486502428</v>
       </c>
       <c r="N11" t="n">
-        <v>301.7250295144823</v>
+        <v>356.4882999159085</v>
       </c>
       <c r="O11" t="n">
-        <v>416.9612684982431</v>
+        <v>471.7245388996689</v>
       </c>
       <c r="P11" t="n">
-        <v>518.5514635302137</v>
+        <v>471.7245388996689</v>
       </c>
       <c r="Q11" t="n">
-        <v>585.7999076426697</v>
+        <v>471.7245388996689</v>
       </c>
       <c r="R11" t="n">
-        <v>585.7999076426697</v>
+        <v>544.1309342247954</v>
       </c>
       <c r="S11" t="n">
-        <v>585.7999076426697</v>
+        <v>585.7999076426734</v>
       </c>
       <c r="T11" t="n">
-        <v>585.7999076426697</v>
+        <v>581.4967029318318</v>
       </c>
       <c r="U11" t="n">
-        <v>548.708755016415</v>
+        <v>581.4967029318318</v>
       </c>
       <c r="V11" t="n">
-        <v>429.4815645995953</v>
+        <v>462.2695125150117</v>
       </c>
       <c r="W11" t="n">
-        <v>284.6987181444352</v>
+        <v>455.5038069730606</v>
       </c>
       <c r="X11" t="n">
-        <v>284.6987181444352</v>
+        <v>307.5745373663249</v>
       </c>
       <c r="Y11" t="n">
-        <v>284.6987181444352</v>
+        <v>159.6452677595892</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="K12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="L12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="M12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="N12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="O12" t="n">
-        <v>11.71599815285339</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="P12" t="n">
-        <v>46.64750657504594</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="Q12" t="n">
-        <v>46.64750657504594</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="R12" t="n">
-        <v>46.64750657504594</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="S12" t="n">
-        <v>46.64750657504594</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="T12" t="n">
-        <v>46.64750657504594</v>
+        <v>46.64750657504723</v>
       </c>
       <c r="U12" t="n">
-        <v>45.92332209673147</v>
+        <v>45.92332209673235</v>
       </c>
       <c r="V12" t="n">
-        <v>35.2797832323044</v>
+        <v>35.27978323230487</v>
       </c>
       <c r="W12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="X12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Y12" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C13" t="n">
-        <v>58.89420363020916</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D13" t="n">
-        <v>122.2872583539623</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E13" t="n">
-        <v>186.7220407204938</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F13" t="n">
-        <v>186.7220407204938</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G13" t="n">
-        <v>186.7220407204938</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H13" t="n">
-        <v>186.7220407204938</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I13" t="n">
-        <v>186.7220407204938</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J13" t="n">
-        <v>186.7220407204938</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="K13" t="n">
-        <v>186.7220407204938</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="L13" t="n">
-        <v>186.7220407204938</v>
+        <v>86.79342122629942</v>
       </c>
       <c r="M13" t="n">
-        <v>186.7220407204938</v>
+        <v>224.7305324699144</v>
       </c>
       <c r="N13" t="n">
-        <v>186.7220407204938</v>
+        <v>224.7305324699144</v>
       </c>
       <c r="O13" t="n">
-        <v>186.7220407204938</v>
+        <v>224.7305324699144</v>
       </c>
       <c r="P13" t="n">
-        <v>224.7305324699119</v>
+        <v>224.7305324699144</v>
       </c>
       <c r="Q13" t="n">
-        <v>224.7305324699119</v>
+        <v>224.7305324699144</v>
       </c>
       <c r="R13" t="n">
-        <v>224.7305324699119</v>
+        <v>224.7305324699144</v>
       </c>
       <c r="S13" t="n">
-        <v>224.7305324699119</v>
+        <v>224.7305324699144</v>
       </c>
       <c r="T13" t="n">
-        <v>210.3122722015894</v>
+        <v>210.3122722015914</v>
       </c>
       <c r="U13" t="n">
-        <v>140.886992240423</v>
+        <v>140.8869922404247</v>
       </c>
       <c r="V13" t="n">
-        <v>97.90377148608457</v>
+        <v>97.90377148608583</v>
       </c>
       <c r="W13" t="n">
-        <v>29.49945369072262</v>
+        <v>29.4994536907235</v>
       </c>
       <c r="X13" t="n">
-        <v>15.99907327333734</v>
+        <v>15.99907327333782</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>307.5745373663229</v>
+        <v>269.3250041813935</v>
       </c>
       <c r="C14" t="n">
-        <v>307.5745373663229</v>
+        <v>269.3250041813935</v>
       </c>
       <c r="D14" t="n">
-        <v>307.5745373663229</v>
+        <v>269.3250041813935</v>
       </c>
       <c r="E14" t="n">
-        <v>159.6452677595882</v>
+        <v>121.3957345746578</v>
       </c>
       <c r="F14" t="n">
-        <v>11.71599815285339</v>
+        <v>121.3957345746578</v>
       </c>
       <c r="G14" t="n">
-        <v>11.71599815285339</v>
+        <v>121.3957345746578</v>
       </c>
       <c r="H14" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I14" t="n">
-        <v>11.71599815285339</v>
+        <v>75.64118274439124</v>
       </c>
       <c r="J14" t="n">
-        <v>123.2819685389585</v>
+        <v>75.64118274439124</v>
       </c>
       <c r="K14" t="n">
-        <v>225.2748170556777</v>
+        <v>177.6340312611101</v>
       </c>
       <c r="L14" t="n">
-        <v>330.4425486502435</v>
+        <v>177.6340312611101</v>
       </c>
       <c r="M14" t="n">
-        <v>449.1425932838719</v>
+        <v>279.8345213029966</v>
       </c>
       <c r="N14" t="n">
-        <v>449.1425932838719</v>
+        <v>279.8345213029966</v>
       </c>
       <c r="O14" t="n">
-        <v>564.3788322676326</v>
+        <v>279.8345213029966</v>
       </c>
       <c r="P14" t="n">
-        <v>564.3788322676326</v>
+        <v>381.4247163349667</v>
       </c>
       <c r="Q14" t="n">
-        <v>585.7999076426697</v>
+        <v>471.7245388996691</v>
       </c>
       <c r="R14" t="n">
-        <v>585.7999076426697</v>
+        <v>544.1309342247955</v>
       </c>
       <c r="S14" t="n">
-        <v>585.7999076426697</v>
+        <v>585.7999076426734</v>
       </c>
       <c r="T14" t="n">
-        <v>581.4967029318283</v>
+        <v>585.7999076426734</v>
       </c>
       <c r="U14" t="n">
-        <v>544.4055503055735</v>
+        <v>548.7087550164182</v>
       </c>
       <c r="V14" t="n">
-        <v>544.4055503055735</v>
+        <v>548.7087550164182</v>
       </c>
       <c r="W14" t="n">
-        <v>544.4055503055735</v>
+        <v>548.7087550164182</v>
       </c>
       <c r="X14" t="n">
-        <v>544.4055503055735</v>
+        <v>400.7794854096825</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.4762806988387</v>
+        <v>400.7794854096825</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="G15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="H15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="I15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="J15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="K15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="L15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="M15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="N15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="O15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="P15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="Q15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="R15" t="n">
-        <v>11.71599815285339</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="S15" t="n">
-        <v>46.64750657504638</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="T15" t="n">
-        <v>46.64750657504638</v>
+        <v>46.6475065750474</v>
       </c>
       <c r="U15" t="n">
-        <v>45.92332209673175</v>
+        <v>45.92332209673246</v>
       </c>
       <c r="V15" t="n">
-        <v>35.27978323230454</v>
+        <v>35.27978323230493</v>
       </c>
       <c r="W15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="X15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Y15" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C16" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D16" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E16" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F16" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G16" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H16" t="n">
-        <v>11.71599815285339</v>
+        <v>28.53615639203646</v>
       </c>
       <c r="I16" t="n">
-        <v>11.71599815285339</v>
+        <v>28.53615639203646</v>
       </c>
       <c r="J16" t="n">
-        <v>94.11474597413053</v>
+        <v>28.53615639203646</v>
       </c>
       <c r="K16" t="n">
-        <v>94.11474597413053</v>
+        <v>28.53615639203646</v>
       </c>
       <c r="L16" t="n">
-        <v>94.11474597413053</v>
+        <v>28.53615639203646</v>
       </c>
       <c r="M16" t="n">
-        <v>94.11474597413053</v>
+        <v>28.53615639203646</v>
       </c>
       <c r="N16" t="n">
-        <v>94.11474597413053</v>
+        <v>28.53615639203646</v>
       </c>
       <c r="O16" t="n">
-        <v>94.11474597413053</v>
+        <v>28.53615639203646</v>
       </c>
       <c r="P16" t="n">
-        <v>224.7305324699128</v>
+        <v>28.53615639203646</v>
       </c>
       <c r="Q16" t="n">
-        <v>224.7305324699128</v>
+        <v>139.4613775961783</v>
       </c>
       <c r="R16" t="n">
-        <v>224.7305324699128</v>
+        <v>216.7366808791434</v>
       </c>
       <c r="S16" t="n">
-        <v>224.7305324699128</v>
+        <v>224.7305324699147</v>
       </c>
       <c r="T16" t="n">
-        <v>210.3122722015901</v>
+        <v>210.3122722015917</v>
       </c>
       <c r="U16" t="n">
-        <v>140.8869922404236</v>
+        <v>140.8869922404249</v>
       </c>
       <c r="V16" t="n">
-        <v>97.90377148608499</v>
+        <v>97.903771486086</v>
       </c>
       <c r="W16" t="n">
-        <v>29.49945369072291</v>
+        <v>29.49945369072361</v>
       </c>
       <c r="X16" t="n">
-        <v>15.99907327333749</v>
+        <v>15.99907327333788</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.8292685207384</v>
+        <v>353.8292685207408</v>
       </c>
       <c r="C17" t="n">
-        <v>299.327329962589</v>
+        <v>299.3273299625907</v>
       </c>
       <c r="D17" t="n">
-        <v>253.9351852988554</v>
+        <v>253.9351852988568</v>
       </c>
       <c r="E17" t="n">
-        <v>186.5812855140051</v>
+        <v>186.581285514006</v>
       </c>
       <c r="F17" t="n">
-        <v>99.86191493321854</v>
+        <v>99.8619149332189</v>
       </c>
       <c r="G17" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H17" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285318</v>
       </c>
       <c r="I17" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285318</v>
       </c>
       <c r="J17" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285318</v>
       </c>
       <c r="K17" t="n">
-        <v>11.71599815285339</v>
+        <v>150.8434762179884</v>
       </c>
       <c r="L17" t="n">
-        <v>47.56393748807295</v>
+        <v>150.8434762179884</v>
       </c>
       <c r="M17" t="n">
-        <v>192.5494146296337</v>
+        <v>150.8434762179884</v>
       </c>
       <c r="N17" t="n">
-        <v>192.5494146296337</v>
+        <v>295.82895335955</v>
       </c>
       <c r="O17" t="n">
-        <v>192.5494146296337</v>
+        <v>295.82895335955</v>
       </c>
       <c r="P17" t="n">
-        <v>337.5348917711945</v>
+        <v>295.82895335955</v>
       </c>
       <c r="Q17" t="n">
-        <v>482.5203689127552</v>
+        <v>440.8144305011117</v>
       </c>
       <c r="R17" t="n">
-        <v>482.5203689127552</v>
+        <v>440.8144305011117</v>
       </c>
       <c r="S17" t="n">
-        <v>482.5203689127552</v>
+        <v>585.7999076426734</v>
       </c>
       <c r="T17" t="n">
-        <v>585.7999076426697</v>
+        <v>585.7999076426734</v>
       </c>
       <c r="U17" t="n">
-        <v>585.7999076426697</v>
+        <v>585.7999076426734</v>
       </c>
       <c r="V17" t="n">
-        <v>576.252453647654</v>
+        <v>576.2524536476573</v>
       </c>
       <c r="W17" t="n">
-        <v>541.1493436142978</v>
+        <v>541.1493436143008</v>
       </c>
       <c r="X17" t="n">
-        <v>486.5510232448339</v>
+        <v>486.5510232448368</v>
       </c>
       <c r="Y17" t="n">
-        <v>420.4409879297147</v>
+        <v>420.4409879297172</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="K18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="L18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="M18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="N18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="O18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="P18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Q18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="R18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="S18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="T18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="U18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="V18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="W18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="X18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Y18" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="K19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="L19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="M19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="N19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="O19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="P19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="R19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="S19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="T19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="U19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="V19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="W19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="X19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Y19" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>353.8292685207387</v>
+        <v>353.8292685207412</v>
       </c>
       <c r="C20" t="n">
-        <v>299.3273299625887</v>
+        <v>299.327329962591</v>
       </c>
       <c r="D20" t="n">
-        <v>253.935185298855</v>
+        <v>253.9351852988573</v>
       </c>
       <c r="E20" t="n">
-        <v>186.5812855140048</v>
+        <v>186.5812855140067</v>
       </c>
       <c r="F20" t="n">
-        <v>99.86191493321803</v>
+        <v>99.86191493321962</v>
       </c>
       <c r="G20" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285376</v>
       </c>
       <c r="H20" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I20" t="n">
-        <v>11.7159981528534</v>
+        <v>156.7014752944151</v>
       </c>
       <c r="J20" t="n">
-        <v>121.405343651616</v>
+        <v>156.7014752944151</v>
       </c>
       <c r="K20" t="n">
-        <v>121.405343651616</v>
+        <v>156.7014752944151</v>
       </c>
       <c r="L20" t="n">
-        <v>121.405343651616</v>
+        <v>156.7014752944151</v>
       </c>
       <c r="M20" t="n">
-        <v>266.3908207931768</v>
+        <v>301.6869524359768</v>
       </c>
       <c r="N20" t="n">
-        <v>266.3908207931768</v>
+        <v>301.6869524359768</v>
       </c>
       <c r="O20" t="n">
-        <v>266.3908207931768</v>
+        <v>369.6703595230942</v>
       </c>
       <c r="P20" t="n">
-        <v>411.3762979347376</v>
+        <v>369.6703595230942</v>
       </c>
       <c r="Q20" t="n">
-        <v>411.3762979347376</v>
+        <v>369.6703595230942</v>
       </c>
       <c r="R20" t="n">
-        <v>411.3762979347376</v>
+        <v>514.6558366646559</v>
       </c>
       <c r="S20" t="n">
-        <v>411.3762979347376</v>
+        <v>514.6558366646559</v>
       </c>
       <c r="T20" t="n">
-        <v>514.6558366646522</v>
+        <v>514.6558366646559</v>
       </c>
       <c r="U20" t="n">
-        <v>585.79990764267</v>
+        <v>585.7999076426734</v>
       </c>
       <c r="V20" t="n">
-        <v>576.252453647654</v>
+        <v>576.2524536476576</v>
       </c>
       <c r="W20" t="n">
-        <v>541.1493436142978</v>
+        <v>541.1493436143014</v>
       </c>
       <c r="X20" t="n">
-        <v>486.5510232448341</v>
+        <v>486.5510232448373</v>
       </c>
       <c r="Y20" t="n">
-        <v>420.4409879297149</v>
+        <v>420.4409879297178</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="K21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="L21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="M21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="N21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="O21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="P21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Q21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="R21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="S21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="T21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="U21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="V21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="W21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="X21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Y21" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="K22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="L22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="M22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="N22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="O22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="P22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="R22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="S22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="T22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="U22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="V22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="W22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="X22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.7159981528534</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>353.8292685207391</v>
+        <v>353.8292685207406</v>
       </c>
       <c r="C23" t="n">
-        <v>299.3273299625894</v>
+        <v>299.3273299625906</v>
       </c>
       <c r="D23" t="n">
-        <v>253.935185298856</v>
+        <v>253.9351852988567</v>
       </c>
       <c r="E23" t="n">
-        <v>186.5812855140058</v>
+        <v>186.5812855140061</v>
       </c>
       <c r="F23" t="n">
-        <v>99.86191493321911</v>
+        <v>99.86191493321905</v>
       </c>
       <c r="G23" t="n">
-        <v>11.71599815285328</v>
+        <v>11.71599815285376</v>
       </c>
       <c r="H23" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I23" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J23" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="K23" t="n">
-        <v>11.71599815285339</v>
+        <v>156.7014752944151</v>
       </c>
       <c r="L23" t="n">
-        <v>11.71599815285339</v>
+        <v>301.6869524359768</v>
       </c>
       <c r="M23" t="n">
-        <v>11.71599815285339</v>
+        <v>301.6869524359768</v>
       </c>
       <c r="N23" t="n">
-        <v>121.4053436516157</v>
+        <v>301.6869524359768</v>
       </c>
       <c r="O23" t="n">
-        <v>266.3908207931764</v>
+        <v>301.6869524359768</v>
       </c>
       <c r="P23" t="n">
-        <v>411.3762979347372</v>
+        <v>301.6869524359768</v>
       </c>
       <c r="Q23" t="n">
-        <v>411.3762979347372</v>
+        <v>446.6724295775384</v>
       </c>
       <c r="R23" t="n">
-        <v>411.3762979347372</v>
+        <v>446.6724295775384</v>
       </c>
       <c r="S23" t="n">
-        <v>411.3762979347372</v>
+        <v>446.6724295775384</v>
       </c>
       <c r="T23" t="n">
-        <v>514.6558366646518</v>
+        <v>549.9519683074527</v>
       </c>
       <c r="U23" t="n">
-        <v>585.7999076426697</v>
+        <v>585.7999076426734</v>
       </c>
       <c r="V23" t="n">
-        <v>576.252453647654</v>
+        <v>576.2524536476573</v>
       </c>
       <c r="W23" t="n">
-        <v>541.149343614298</v>
+        <v>541.1493436143008</v>
       </c>
       <c r="X23" t="n">
-        <v>486.5510232448343</v>
+        <v>486.5510232448366</v>
       </c>
       <c r="Y23" t="n">
-        <v>420.4409879297153</v>
+        <v>420.4409879297172</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="K24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="L24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="M24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="N24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="O24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="P24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="R24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="S24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="T24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="U24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="V24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="W24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="X24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Y24" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="C25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="D25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="E25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="F25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="G25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="H25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="I25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="J25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="K25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="L25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="M25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="N25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="O25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="P25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Q25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="R25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="S25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="T25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="U25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="V25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="W25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="X25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.71599815285339</v>
+        <v>11.71599815285347</v>
       </c>
     </row>
     <row r="26">
@@ -6206,16 +6206,16 @@
         <v>1097.047384063551</v>
       </c>
       <c r="D26" t="n">
-        <v>899.4604806151136</v>
+        <v>899.4604806151135</v>
       </c>
       <c r="E26" t="n">
-        <v>679.9118220455592</v>
+        <v>679.9118220455591</v>
       </c>
       <c r="F26" t="n">
-        <v>440.9976926800684</v>
+        <v>440.9976926800686</v>
       </c>
       <c r="G26" t="n">
-        <v>200.6570171149991</v>
+        <v>200.657017114999</v>
       </c>
       <c r="H26" t="n">
         <v>48.46225833029504</v>
@@ -6224,28 +6224,28 @@
         <v>48.46225833029504</v>
       </c>
       <c r="J26" t="n">
-        <v>118.3592552985218</v>
+        <v>108.3423356013084</v>
       </c>
       <c r="K26" t="n">
-        <v>595.8582763764516</v>
+        <v>585.8413566792383</v>
       </c>
       <c r="L26" t="n">
-        <v>1195.578723213853</v>
+        <v>1185.561803516639</v>
       </c>
       <c r="M26" t="n">
-        <v>1795.299170051254</v>
+        <v>1185.561803516639</v>
       </c>
       <c r="N26" t="n">
-        <v>2041.418330233873</v>
+        <v>1610.024639312165</v>
       </c>
       <c r="O26" t="n">
-        <v>2041.418330233873</v>
+        <v>1683.591904878048</v>
       </c>
       <c r="P26" t="n">
-        <v>2343.744645460679</v>
+        <v>2157.668063908838</v>
       </c>
       <c r="Q26" t="n">
-        <v>2392.375494607504</v>
+        <v>2307.798462230975</v>
       </c>
       <c r="R26" t="n">
         <v>2423.112916514752</v>
@@ -6288,64 +6288,64 @@
         <v>48.46225833029504</v>
       </c>
       <c r="E27" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901904</v>
       </c>
       <c r="F27" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901904</v>
       </c>
       <c r="G27" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901904</v>
       </c>
       <c r="H27" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901904</v>
       </c>
       <c r="I27" t="n">
-        <v>103.6196636025523</v>
+        <v>76.10994958901904</v>
       </c>
       <c r="J27" t="n">
-        <v>168.8374327619732</v>
+        <v>125.3403523641196</v>
       </c>
       <c r="K27" t="n">
-        <v>168.8374327619732</v>
+        <v>125.3403523641196</v>
       </c>
       <c r="L27" t="n">
-        <v>168.8374327619732</v>
+        <v>125.3403523641196</v>
       </c>
       <c r="M27" t="n">
-        <v>168.8374327619732</v>
+        <v>125.3403523641196</v>
       </c>
       <c r="N27" t="n">
-        <v>168.8374327619732</v>
+        <v>263.2161499741898</v>
       </c>
       <c r="O27" t="n">
-        <v>168.8374327619732</v>
+        <v>263.2161499741898</v>
       </c>
       <c r="P27" t="n">
-        <v>168.8374327619732</v>
+        <v>263.2161499741898</v>
       </c>
       <c r="Q27" t="n">
-        <v>263.2161499741901</v>
+        <v>263.2161499741898</v>
       </c>
       <c r="R27" t="n">
-        <v>263.2161499741901</v>
+        <v>263.2161499741898</v>
       </c>
       <c r="S27" t="n">
-        <v>263.2161499741901</v>
+        <v>263.2161499741898</v>
       </c>
       <c r="T27" t="n">
-        <v>250.9030256651371</v>
+        <v>250.9030256651368</v>
       </c>
       <c r="U27" t="n">
-        <v>207.6638188239224</v>
+        <v>207.6638188239222</v>
       </c>
       <c r="V27" t="n">
-        <v>154.5052575965952</v>
+        <v>154.505257596595</v>
       </c>
       <c r="W27" t="n">
-        <v>88.42645015424404</v>
+        <v>88.42645015424392</v>
       </c>
       <c r="X27" t="n">
-        <v>65.74652335637742</v>
+        <v>65.74652335637737</v>
       </c>
       <c r="Y27" t="n">
         <v>48.46225833029504</v>
@@ -6364,70 +6364,70 @@
         <v>48.46225833029504</v>
       </c>
       <c r="D28" t="n">
-        <v>70.18633963616975</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="E28" t="n">
-        <v>92.95214858482279</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="F28" t="n">
-        <v>92.95214858482279</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="G28" t="n">
-        <v>92.95214858482279</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="H28" t="n">
-        <v>92.95214858482279</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="I28" t="n">
-        <v>92.95214858482279</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="J28" t="n">
-        <v>92.95214858482279</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="K28" t="n">
-        <v>92.95214858482279</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="L28" t="n">
-        <v>92.95214858482279</v>
+        <v>140.5869910316936</v>
       </c>
       <c r="M28" t="n">
-        <v>369.8110458671804</v>
+        <v>140.5869910316936</v>
       </c>
       <c r="N28" t="n">
-        <v>523.6377675245924</v>
+        <v>466.16355649309</v>
       </c>
       <c r="O28" t="n">
-        <v>523.6377675245924</v>
+        <v>559.2440973896789</v>
       </c>
       <c r="P28" t="n">
-        <v>523.6377675245924</v>
+        <v>559.2440973896789</v>
       </c>
       <c r="Q28" t="n">
-        <v>523.6377675245924</v>
+        <v>559.2440973896789</v>
       </c>
       <c r="R28" t="n">
-        <v>559.2440973896795</v>
+        <v>559.2440973896789</v>
       </c>
       <c r="S28" t="n">
-        <v>524.8852341847956</v>
+        <v>524.8852341847952</v>
       </c>
       <c r="T28" t="n">
-        <v>467.9519515535729</v>
+        <v>467.9519515535725</v>
       </c>
       <c r="U28" t="n">
-        <v>356.0116492295064</v>
+        <v>356.0116492295061</v>
       </c>
       <c r="V28" t="n">
-        <v>270.5134061122678</v>
+        <v>270.5134061122675</v>
       </c>
       <c r="W28" t="n">
-        <v>159.5940659540057</v>
+        <v>159.5940659540055</v>
       </c>
       <c r="X28" t="n">
-        <v>103.5786631737202</v>
+        <v>103.5786631737201</v>
       </c>
       <c r="Y28" t="n">
-        <v>56.78056569033608</v>
+        <v>56.78056569033602</v>
       </c>
     </row>
     <row r="29">
@@ -6458,31 +6458,31 @@
         <v>48.46225833029504</v>
       </c>
       <c r="I29" t="n">
-        <v>70.71846950395491</v>
+        <v>70.71846950395494</v>
       </c>
       <c r="J29" t="n">
-        <v>358.2428101986407</v>
+        <v>140.6154664721818</v>
       </c>
       <c r="K29" t="n">
-        <v>835.7418312765706</v>
+        <v>140.6154664721818</v>
       </c>
       <c r="L29" t="n">
-        <v>899.2405894532581</v>
+        <v>204.1142246488695</v>
       </c>
       <c r="M29" t="n">
-        <v>1498.961036290659</v>
+        <v>803.8346714862706</v>
       </c>
       <c r="N29" t="n">
-        <v>1969.323825962544</v>
+        <v>1274.197461158156</v>
       </c>
       <c r="O29" t="n">
-        <v>1985.918220104854</v>
+        <v>1837.854560009192</v>
       </c>
       <c r="P29" t="n">
-        <v>1985.918220104854</v>
+        <v>2129.032472250867</v>
       </c>
       <c r="Q29" t="n">
-        <v>2307.798462230975</v>
+        <v>2423.112916514752</v>
       </c>
       <c r="R29" t="n">
         <v>2423.112916514752</v>
@@ -6525,37 +6525,37 @@
         <v>48.46225833029504</v>
       </c>
       <c r="E30" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901912</v>
       </c>
       <c r="F30" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901912</v>
       </c>
       <c r="G30" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901912</v>
       </c>
       <c r="H30" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901912</v>
       </c>
       <c r="I30" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901912</v>
       </c>
       <c r="J30" t="n">
-        <v>48.46225833029504</v>
+        <v>76.10994958901912</v>
       </c>
       <c r="K30" t="n">
-        <v>153.898219091084</v>
+        <v>76.10994958901912</v>
       </c>
       <c r="L30" t="n">
-        <v>153.898219091084</v>
+        <v>76.10994958901912</v>
       </c>
       <c r="M30" t="n">
-        <v>153.898219091084</v>
+        <v>203.4540121022838</v>
       </c>
       <c r="N30" t="n">
-        <v>263.2161499741893</v>
+        <v>203.4540121022838</v>
       </c>
       <c r="O30" t="n">
-        <v>263.2161499741893</v>
+        <v>203.4540121022838</v>
       </c>
       <c r="P30" t="n">
         <v>263.2161499741893</v>
@@ -6598,43 +6598,43 @@
         <v>48.46225833029504</v>
       </c>
       <c r="C31" t="n">
-        <v>53.97149038977249</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="D31" t="n">
-        <v>75.69557169564733</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="E31" t="n">
-        <v>75.69557169564733</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="F31" t="n">
-        <v>75.69557169564733</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="G31" t="n">
-        <v>75.69557169564733</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="H31" t="n">
-        <v>75.69557169564733</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="I31" t="n">
-        <v>75.69557169564733</v>
+        <v>85.83632255470954</v>
       </c>
       <c r="J31" t="n">
-        <v>75.69557169564733</v>
+        <v>85.83632255470954</v>
       </c>
       <c r="K31" t="n">
-        <v>75.69557169564733</v>
+        <v>85.83632255470954</v>
       </c>
       <c r="L31" t="n">
-        <v>75.69557169564733</v>
+        <v>220.8403145084266</v>
       </c>
       <c r="M31" t="n">
-        <v>229.9557993078563</v>
+        <v>317.1084523341636</v>
       </c>
       <c r="N31" t="n">
-        <v>375.2131402339992</v>
+        <v>470.9351739915756</v>
       </c>
       <c r="O31" t="n">
-        <v>468.293681130588</v>
+        <v>470.9351739915756</v>
       </c>
       <c r="P31" t="n">
         <v>559.2440973896784</v>
@@ -6680,40 +6680,40 @@
         <v>1097.047384063551</v>
       </c>
       <c r="D32" t="n">
-        <v>899.4604806151135</v>
+        <v>899.4604806151137</v>
       </c>
       <c r="E32" t="n">
-        <v>679.9118220455592</v>
+        <v>679.9118220455593</v>
       </c>
       <c r="F32" t="n">
         <v>440.9976926800684</v>
       </c>
       <c r="G32" t="n">
-        <v>200.657017114999</v>
+        <v>200.6570171149991</v>
       </c>
       <c r="H32" t="n">
         <v>48.46225833029504</v>
       </c>
       <c r="I32" t="n">
-        <v>70.71846950395488</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="J32" t="n">
-        <v>358.2428101986407</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="K32" t="n">
-        <v>835.7418312765706</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="L32" t="n">
-        <v>1265.020728775703</v>
+        <v>648.1827051676962</v>
       </c>
       <c r="M32" t="n">
-        <v>1788.013216279454</v>
+        <v>1247.903152005097</v>
       </c>
       <c r="N32" t="n">
-        <v>1867.2603580371</v>
+        <v>1247.903152005097</v>
       </c>
       <c r="O32" t="n">
-        <v>2259.167613084151</v>
+        <v>1785.091454053361</v>
       </c>
       <c r="P32" t="n">
         <v>2259.167613084151</v>
@@ -6756,70 +6756,70 @@
         <v>48.46225833029504</v>
       </c>
       <c r="C33" t="n">
-        <v>61.72633246313924</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="D33" t="n">
-        <v>97.4004281338306</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="E33" t="n">
-        <v>125.0481193925546</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="F33" t="n">
-        <v>125.0481193925546</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="G33" t="n">
-        <v>125.0481193925546</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="H33" t="n">
-        <v>125.0481193925546</v>
+        <v>48.46225833029504</v>
       </c>
       <c r="I33" t="n">
-        <v>125.0481193925546</v>
+        <v>146.5347248096134</v>
       </c>
       <c r="J33" t="n">
-        <v>125.0481193925546</v>
+        <v>146.5347248096134</v>
       </c>
       <c r="K33" t="n">
-        <v>125.0481193925546</v>
+        <v>146.5347248096134</v>
       </c>
       <c r="L33" t="n">
-        <v>125.0481193925546</v>
+        <v>146.5347248096134</v>
       </c>
       <c r="M33" t="n">
-        <v>125.0481193925546</v>
+        <v>146.5347248096134</v>
       </c>
       <c r="N33" t="n">
-        <v>262.9239170026247</v>
+        <v>146.5347248096134</v>
       </c>
       <c r="O33" t="n">
-        <v>263.2161499741898</v>
+        <v>146.5347248096134</v>
       </c>
       <c r="P33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.2161499741901</v>
       </c>
       <c r="Q33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.2161499741901</v>
       </c>
       <c r="R33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.2161499741901</v>
       </c>
       <c r="S33" t="n">
-        <v>263.2161499741898</v>
+        <v>263.2161499741901</v>
       </c>
       <c r="T33" t="n">
-        <v>250.9030256651368</v>
+        <v>250.9030256651371</v>
       </c>
       <c r="U33" t="n">
-        <v>207.6638188239222</v>
+        <v>207.6638188239224</v>
       </c>
       <c r="V33" t="n">
-        <v>154.505257596595</v>
+        <v>154.5052575965952</v>
       </c>
       <c r="W33" t="n">
-        <v>88.42645015424392</v>
+        <v>88.42645015424404</v>
       </c>
       <c r="X33" t="n">
-        <v>65.74652335637737</v>
+        <v>65.74652335637742</v>
       </c>
       <c r="Y33" t="n">
         <v>48.46225833029504</v>
@@ -6850,58 +6850,58 @@
         <v>48.46225833029504</v>
       </c>
       <c r="H34" t="n">
-        <v>48.46225833029504</v>
+        <v>66.0679727049244</v>
       </c>
       <c r="I34" t="n">
-        <v>48.46225833029504</v>
+        <v>66.0679727049244</v>
       </c>
       <c r="J34" t="n">
-        <v>48.46225833029504</v>
+        <v>66.0679727049244</v>
       </c>
       <c r="K34" t="n">
-        <v>108.9462640053033</v>
+        <v>66.0679727049244</v>
       </c>
       <c r="L34" t="n">
-        <v>185.3052409488679</v>
+        <v>163.7168675786453</v>
       </c>
       <c r="M34" t="n">
-        <v>185.3052409488679</v>
+        <v>163.7168675786453</v>
       </c>
       <c r="N34" t="n">
-        <v>339.1319626062798</v>
+        <v>163.7168675786453</v>
       </c>
       <c r="O34" t="n">
-        <v>470.2972843117749</v>
+        <v>370.2851323061624</v>
       </c>
       <c r="P34" t="n">
-        <v>559.2440973896789</v>
+        <v>370.2851323061624</v>
       </c>
       <c r="Q34" t="n">
-        <v>559.2440973896789</v>
+        <v>523.6377675245924</v>
       </c>
       <c r="R34" t="n">
-        <v>559.2440973896789</v>
+        <v>559.2440973896795</v>
       </c>
       <c r="S34" t="n">
-        <v>524.8852341847952</v>
+        <v>524.8852341847956</v>
       </c>
       <c r="T34" t="n">
-        <v>467.9519515535725</v>
+        <v>467.9519515535729</v>
       </c>
       <c r="U34" t="n">
-        <v>356.0116492295061</v>
+        <v>356.0116492295064</v>
       </c>
       <c r="V34" t="n">
-        <v>270.5134061122675</v>
+        <v>270.5134061122678</v>
       </c>
       <c r="W34" t="n">
-        <v>159.5940659540055</v>
+        <v>159.5940659540057</v>
       </c>
       <c r="X34" t="n">
-        <v>103.5786631737201</v>
+        <v>103.5786631737202</v>
       </c>
       <c r="Y34" t="n">
-        <v>56.78056569033602</v>
+        <v>56.78056569033608</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1027.066278873636</v>
+        <v>1027.066278873635</v>
       </c>
       <c r="C35" t="n">
-        <v>864.5298822607683</v>
+        <v>864.5298822607671</v>
       </c>
       <c r="D35" t="n">
-        <v>711.1032795423166</v>
+        <v>711.1032795423157</v>
       </c>
       <c r="E35" t="n">
-        <v>535.7149217027481</v>
+        <v>535.7149217027477</v>
       </c>
       <c r="F35" t="n">
         <v>340.9610930672431</v>
       </c>
       <c r="G35" t="n">
-        <v>144.7807182321598</v>
+        <v>144.7807182321594</v>
       </c>
       <c r="H35" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I35" t="n">
-        <v>102.2839820965606</v>
+        <v>102.2839820965608</v>
       </c>
       <c r="J35" t="n">
-        <v>215.4624898102465</v>
+        <v>360.7795425013379</v>
       </c>
       <c r="K35" t="n">
-        <v>319.0678756545465</v>
+        <v>464.3849283456382</v>
       </c>
       <c r="L35" t="n">
-        <v>559.7517522743927</v>
+        <v>571.1651972677852</v>
       </c>
       <c r="M35" t="n">
-        <v>680.064334235602</v>
+        <v>1025.900166963625</v>
       </c>
       <c r="N35" t="n">
-        <v>1134.799303931442</v>
+        <v>1148.42881946673</v>
       </c>
       <c r="O35" t="n">
-        <v>1251.648080242784</v>
+        <v>1265.277595778072</v>
       </c>
       <c r="P35" t="n">
-        <v>1354.850812602335</v>
+        <v>1720.012565473912</v>
       </c>
       <c r="Q35" t="n">
-        <v>1720.012565473916</v>
+        <v>1720.012565473912</v>
       </c>
       <c r="R35" t="n">
-        <v>1794.031498126624</v>
+        <v>1794.03149812662</v>
       </c>
       <c r="S35" t="n">
-        <v>1837.313008872082</v>
+        <v>1837.313008872079</v>
       </c>
       <c r="T35" t="n">
-        <v>1834.655082528327</v>
+        <v>1834.655082528325</v>
       </c>
       <c r="U35" t="n">
-        <v>1799.209208269159</v>
+        <v>1799.209208269156</v>
       </c>
       <c r="V35" t="n">
-        <v>1681.627296219424</v>
+        <v>1681.627296219422</v>
       </c>
       <c r="W35" t="n">
-        <v>1538.48972813135</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X35" t="n">
-        <v>1375.856949707168</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y35" t="n">
-        <v>1201.712456337331</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="O36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="P36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Q36" t="n">
-        <v>67.6630273871483</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="R36" t="n">
-        <v>67.6630273871483</v>
+        <v>67.66302738714761</v>
       </c>
       <c r="S36" t="n">
-        <v>67.6630273871483</v>
+        <v>67.66302738714761</v>
       </c>
       <c r="T36" t="n">
-        <v>67.6630273871483</v>
+        <v>67.66302738714761</v>
       </c>
       <c r="U36" t="n">
-        <v>67.6630273871483</v>
+        <v>67.66302738714761</v>
       </c>
       <c r="V36" t="n">
-        <v>58.66476688980694</v>
+        <v>58.66476688980656</v>
       </c>
       <c r="W36" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="X36" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Y36" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C37" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D37" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E37" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F37" t="n">
-        <v>36.74626017744165</v>
+        <v>102.3313247866496</v>
       </c>
       <c r="G37" t="n">
-        <v>36.74626017744165</v>
+        <v>102.3313247866496</v>
       </c>
       <c r="H37" t="n">
-        <v>36.74626017744165</v>
+        <v>102.3313247866496</v>
       </c>
       <c r="I37" t="n">
-        <v>101.7529913531019</v>
+        <v>182.9868997565235</v>
       </c>
       <c r="J37" t="n">
-        <v>101.7529913531019</v>
+        <v>182.9868997565235</v>
       </c>
       <c r="K37" t="n">
-        <v>239.889124291986</v>
+        <v>239.889124291984</v>
       </c>
       <c r="L37" t="n">
-        <v>239.889124291986</v>
+        <v>239.889124291984</v>
       </c>
       <c r="M37" t="n">
-        <v>239.889124291986</v>
+        <v>239.889124291984</v>
       </c>
       <c r="N37" t="n">
-        <v>239.889124291986</v>
+        <v>239.889124291984</v>
       </c>
       <c r="O37" t="n">
-        <v>239.889124291986</v>
+        <v>239.889124291984</v>
       </c>
       <c r="P37" t="n">
-        <v>239.889124291986</v>
+        <v>239.889124291984</v>
       </c>
       <c r="Q37" t="n">
-        <v>239.889124291986</v>
+        <v>239.889124291984</v>
       </c>
       <c r="R37" t="n">
-        <v>239.889124291986</v>
+        <v>239.889124291984</v>
       </c>
       <c r="S37" t="n">
-        <v>239.889124291986</v>
+        <v>239.889124291984</v>
       </c>
       <c r="T37" t="n">
-        <v>227.1161423907491</v>
+        <v>227.1161423907474</v>
       </c>
       <c r="U37" t="n">
-        <v>159.3361407966684</v>
+        <v>159.3361407966671</v>
       </c>
       <c r="V37" t="n">
-        <v>117.9981984094157</v>
+        <v>117.9981984094147</v>
       </c>
       <c r="W37" t="n">
-        <v>51.23915898113946</v>
+        <v>51.23915898113876</v>
       </c>
       <c r="X37" t="n">
-        <v>39.38405693083989</v>
+        <v>39.38405693083951</v>
       </c>
       <c r="Y37" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1027.066278873637</v>
+        <v>1027.066278873634</v>
       </c>
       <c r="C38" t="n">
-        <v>864.5298822607688</v>
+        <v>864.5298822607668</v>
       </c>
       <c r="D38" t="n">
-        <v>711.103279542317</v>
+        <v>711.1032795423154</v>
       </c>
       <c r="E38" t="n">
-        <v>535.7149217027484</v>
+        <v>535.7149217027472</v>
       </c>
       <c r="F38" t="n">
-        <v>340.9610930672433</v>
+        <v>340.9610930672425</v>
       </c>
       <c r="G38" t="n">
-        <v>144.7807182321599</v>
+        <v>144.7807182321594</v>
       </c>
       <c r="H38" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2839820965605</v>
+        <v>102.2839820965608</v>
       </c>
       <c r="J38" t="n">
-        <v>433.0898335367053</v>
+        <v>102.2839820965608</v>
       </c>
       <c r="K38" t="n">
-        <v>887.8248032325457</v>
+        <v>205.8893679408611</v>
       </c>
       <c r="L38" t="n">
-        <v>994.6050721546924</v>
+        <v>312.6696368630081</v>
       </c>
       <c r="M38" t="n">
-        <v>1114.917654115902</v>
+        <v>767.4046065588477</v>
       </c>
       <c r="N38" t="n">
-        <v>1237.446306619007</v>
+        <v>1222.139576254687</v>
       </c>
       <c r="O38" t="n">
-        <v>1491.658189868041</v>
+        <v>1338.988352566029</v>
       </c>
       <c r="P38" t="n">
-        <v>1569.88216715178</v>
+        <v>1543.523173205099</v>
       </c>
       <c r="Q38" t="n">
-        <v>1720.012565473918</v>
+        <v>1635.435533097383</v>
       </c>
       <c r="R38" t="n">
-        <v>1794.031498126625</v>
+        <v>1794.031498126619</v>
       </c>
       <c r="S38" t="n">
-        <v>1837.313008872084</v>
+        <v>1837.313008872079</v>
       </c>
       <c r="T38" t="n">
-        <v>1834.655082528328</v>
+        <v>1834.655082528324</v>
       </c>
       <c r="U38" t="n">
-        <v>1799.209208269159</v>
+        <v>1799.209208269155</v>
       </c>
       <c r="V38" t="n">
-        <v>1681.627296219425</v>
+        <v>1681.627296219421</v>
       </c>
       <c r="W38" t="n">
-        <v>1538.489728131351</v>
+        <v>1538.489728131347</v>
       </c>
       <c r="X38" t="n">
-        <v>1375.856949707169</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y38" t="n">
-        <v>1201.712456337331</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="39">
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M39" t="n">
-        <v>67.66302738714847</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N39" t="n">
-        <v>67.66302738714847</v>
+        <v>66.76026326676262</v>
       </c>
       <c r="O39" t="n">
-        <v>67.66302738714847</v>
+        <v>66.76026326676262</v>
       </c>
       <c r="P39" t="n">
-        <v>67.66302738714847</v>
+        <v>66.76026326676262</v>
       </c>
       <c r="Q39" t="n">
-        <v>67.66302738714847</v>
+        <v>66.76026326676262</v>
       </c>
       <c r="R39" t="n">
-        <v>67.66302738714847</v>
+        <v>66.76026326676262</v>
       </c>
       <c r="S39" t="n">
-        <v>67.66302738714847</v>
+        <v>66.76026326676262</v>
       </c>
       <c r="T39" t="n">
-        <v>67.66302738714847</v>
+        <v>66.76026326676262</v>
       </c>
       <c r="U39" t="n">
-        <v>67.66302738714847</v>
+        <v>67.66302738714761</v>
       </c>
       <c r="V39" t="n">
-        <v>58.66476688980703</v>
+        <v>58.66476688980656</v>
       </c>
       <c r="W39" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="X39" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Y39" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.8749978793245</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C40" t="n">
-        <v>71.8749978793245</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D40" t="n">
-        <v>71.8749978793245</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E40" t="n">
-        <v>71.8749978793245</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F40" t="n">
-        <v>71.8749978793245</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G40" t="n">
-        <v>71.8749978793245</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H40" t="n">
-        <v>71.8749978793245</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I40" t="n">
-        <v>71.8749978793245</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J40" t="n">
-        <v>201.111557729772</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K40" t="n">
-        <v>230.282735373634</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L40" t="n">
-        <v>230.282735373634</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M40" t="n">
-        <v>230.282735373634</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N40" t="n">
-        <v>230.282735373634</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="O40" t="n">
-        <v>230.282735373634</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="P40" t="n">
-        <v>230.282735373634</v>
+        <v>168.974584000805</v>
       </c>
       <c r="Q40" t="n">
-        <v>230.282735373634</v>
+        <v>168.974584000805</v>
       </c>
       <c r="R40" t="n">
-        <v>230.282735373634</v>
+        <v>230.2827353736312</v>
       </c>
       <c r="S40" t="n">
-        <v>239.8891242919865</v>
+        <v>239.889124291984</v>
       </c>
       <c r="T40" t="n">
-        <v>227.1161423907495</v>
+        <v>227.1161423907474</v>
       </c>
       <c r="U40" t="n">
-        <v>159.3361407966688</v>
+        <v>159.3361407966671</v>
       </c>
       <c r="V40" t="n">
-        <v>117.9981984094159</v>
+        <v>117.9981984094147</v>
       </c>
       <c r="W40" t="n">
-        <v>51.23915898113963</v>
+        <v>51.23915898113876</v>
       </c>
       <c r="X40" t="n">
-        <v>39.38405693083998</v>
+        <v>39.38405693083951</v>
       </c>
       <c r="Y40" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1027.066278873636</v>
+        <v>1027.066278873635</v>
       </c>
       <c r="C41" t="n">
-        <v>864.5298822607683</v>
+        <v>864.5298822607671</v>
       </c>
       <c r="D41" t="n">
-        <v>711.1032795423166</v>
+        <v>711.1032795423156</v>
       </c>
       <c r="E41" t="n">
-        <v>535.7149217027481</v>
+        <v>535.7149217027475</v>
       </c>
       <c r="F41" t="n">
-        <v>340.9610930672432</v>
+        <v>340.9610930672428</v>
       </c>
       <c r="G41" t="n">
-        <v>144.7807182321598</v>
+        <v>144.7807182321594</v>
       </c>
       <c r="H41" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2839820965606</v>
+        <v>102.2839820965608</v>
       </c>
       <c r="J41" t="n">
-        <v>198.1668994586883</v>
+        <v>433.089833536706</v>
       </c>
       <c r="K41" t="n">
-        <v>652.9018691545286</v>
+        <v>433.089833536706</v>
       </c>
       <c r="L41" t="n">
-        <v>759.6821380766754</v>
+        <v>539.870102458853</v>
       </c>
       <c r="M41" t="n">
-        <v>879.9947200378847</v>
+        <v>542.5034825537922</v>
       </c>
       <c r="N41" t="n">
-        <v>1002.52337254099</v>
+        <v>665.0321350568979</v>
       </c>
       <c r="O41" t="n">
-        <v>1247.3841685385</v>
+        <v>1119.767104752737</v>
       </c>
       <c r="P41" t="n">
-        <v>1702.11913823434</v>
+        <v>1313.555290971261</v>
       </c>
       <c r="Q41" t="n">
-        <v>1794.031498126624</v>
+        <v>1678.717043842843</v>
       </c>
       <c r="R41" t="n">
-        <v>1794.031498126624</v>
+        <v>1837.313008872079</v>
       </c>
       <c r="S41" t="n">
-        <v>1837.313008872082</v>
+        <v>1837.313008872079</v>
       </c>
       <c r="T41" t="n">
-        <v>1834.655082528327</v>
+        <v>1834.655082528324</v>
       </c>
       <c r="U41" t="n">
-        <v>1799.209208269158</v>
+        <v>1799.209208269155</v>
       </c>
       <c r="V41" t="n">
-        <v>1681.627296219424</v>
+        <v>1681.627296219421</v>
       </c>
       <c r="W41" t="n">
-        <v>1538.48972813135</v>
+        <v>1538.489728131347</v>
       </c>
       <c r="X41" t="n">
-        <v>1375.856949707168</v>
+        <v>1375.856949707166</v>
       </c>
       <c r="Y41" t="n">
-        <v>1201.712456337331</v>
+        <v>1201.712456337329</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C42" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D42" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E42" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="O42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="P42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Q42" t="n">
-        <v>66.76026326676354</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="R42" t="n">
-        <v>66.76026326676354</v>
+        <v>67.66302738714761</v>
       </c>
       <c r="S42" t="n">
-        <v>66.76026326676354</v>
+        <v>67.66302738714761</v>
       </c>
       <c r="T42" t="n">
-        <v>66.76026326676354</v>
+        <v>67.66302738714761</v>
       </c>
       <c r="U42" t="n">
-        <v>67.66302738714825</v>
+        <v>67.66302738714761</v>
       </c>
       <c r="V42" t="n">
-        <v>58.66476688980691</v>
+        <v>58.66476688980656</v>
       </c>
       <c r="W42" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="X42" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Y42" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C43" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D43" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E43" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F43" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G43" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H43" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I43" t="n">
-        <v>117.4018351473152</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J43" t="n">
-        <v>117.4018351473152</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K43" t="n">
-        <v>117.4018351473152</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L43" t="n">
-        <v>117.4018351473152</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M43" t="n">
-        <v>230.2827353736332</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N43" t="n">
-        <v>230.2827353736332</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="O43" t="n">
-        <v>230.2827353736332</v>
+        <v>173.1083118194899</v>
       </c>
       <c r="P43" t="n">
-        <v>230.2827353736332</v>
+        <v>230.2827353736312</v>
       </c>
       <c r="Q43" t="n">
-        <v>230.2827353736332</v>
+        <v>230.2827353736312</v>
       </c>
       <c r="R43" t="n">
-        <v>230.2827353736332</v>
+        <v>230.2827353736312</v>
       </c>
       <c r="S43" t="n">
-        <v>239.8891242919858</v>
+        <v>239.889124291984</v>
       </c>
       <c r="T43" t="n">
-        <v>227.1161423907489</v>
+        <v>227.1161423907474</v>
       </c>
       <c r="U43" t="n">
-        <v>159.3361407966683</v>
+        <v>159.3361407966671</v>
       </c>
       <c r="V43" t="n">
-        <v>117.9981984094156</v>
+        <v>117.9981984094147</v>
       </c>
       <c r="W43" t="n">
-        <v>51.2391589811394</v>
+        <v>51.23915898113876</v>
       </c>
       <c r="X43" t="n">
-        <v>39.38405693083986</v>
+        <v>39.38405693083951</v>
       </c>
       <c r="Y43" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="44">
@@ -7622,73 +7622,73 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1027.066278873636</v>
+        <v>1027.066278873635</v>
       </c>
       <c r="C44" t="n">
-        <v>864.5298822607682</v>
+        <v>864.5298822607676</v>
       </c>
       <c r="D44" t="n">
-        <v>711.1032795423166</v>
+        <v>711.1032795423164</v>
       </c>
       <c r="E44" t="n">
-        <v>535.7149217027481</v>
+        <v>535.7149217027479</v>
       </c>
       <c r="F44" t="n">
-        <v>340.9610930672434</v>
+        <v>340.9610930672432</v>
       </c>
       <c r="G44" t="n">
-        <v>144.7807182321598</v>
+        <v>144.7807182321595</v>
       </c>
       <c r="H44" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2839820965606</v>
+        <v>102.2839820965608</v>
       </c>
       <c r="J44" t="n">
-        <v>433.0898335367056</v>
+        <v>212.877634269128</v>
       </c>
       <c r="K44" t="n">
-        <v>887.8248032325459</v>
+        <v>316.4830201134283</v>
       </c>
       <c r="L44" t="n">
-        <v>994.6050721546927</v>
+        <v>423.2632890355753</v>
       </c>
       <c r="M44" t="n">
-        <v>994.6050721546927</v>
+        <v>877.9982587314148</v>
       </c>
       <c r="N44" t="n">
-        <v>994.6050721546927</v>
+        <v>1000.52691123452</v>
       </c>
       <c r="O44" t="n">
-        <v>1111.453848466034</v>
+        <v>1088.78820350926</v>
       </c>
       <c r="P44" t="n">
-        <v>1354.850812602335</v>
+        <v>1543.5231732051</v>
       </c>
       <c r="Q44" t="n">
-        <v>1720.012565473916</v>
+        <v>1635.435533097384</v>
       </c>
       <c r="R44" t="n">
-        <v>1794.031498126624</v>
+        <v>1794.03149812662</v>
       </c>
       <c r="S44" t="n">
-        <v>1837.313008872082</v>
+        <v>1837.313008872079</v>
       </c>
       <c r="T44" t="n">
-        <v>1834.655082528327</v>
+        <v>1834.655082528324</v>
       </c>
       <c r="U44" t="n">
-        <v>1799.209208269159</v>
+        <v>1799.209208269156</v>
       </c>
       <c r="V44" t="n">
-        <v>1681.627296219424</v>
+        <v>1681.627296219422</v>
       </c>
       <c r="W44" t="n">
-        <v>1538.48972813135</v>
+        <v>1538.489728131348</v>
       </c>
       <c r="X44" t="n">
-        <v>1375.856949707168</v>
+        <v>1375.856949707167</v>
       </c>
       <c r="Y44" t="n">
         <v>1201.71245633733</v>
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="L45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="M45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="N45" t="n">
-        <v>67.66302738714825</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="O45" t="n">
-        <v>67.66302738714825</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="P45" t="n">
-        <v>67.66302738714825</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Q45" t="n">
-        <v>67.66302738714825</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="R45" t="n">
-        <v>67.66302738714825</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="S45" t="n">
-        <v>67.66302738714825</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="T45" t="n">
-        <v>67.66302738714825</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="U45" t="n">
-        <v>67.66302738714825</v>
+        <v>67.66302738714766</v>
       </c>
       <c r="V45" t="n">
-        <v>58.66476688980691</v>
+        <v>58.66476688980659</v>
       </c>
       <c r="W45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="X45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="Y45" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="C46" t="n">
-        <v>85.53700298237814</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="D46" t="n">
-        <v>85.53700298237814</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="E46" t="n">
-        <v>85.53700298237814</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="F46" t="n">
-        <v>85.53700298237814</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="G46" t="n">
-        <v>135.2414718326895</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="H46" t="n">
-        <v>135.2414718326895</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="I46" t="n">
-        <v>135.2414718326895</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="J46" t="n">
-        <v>135.2414718326895</v>
+        <v>36.74626017744158</v>
       </c>
       <c r="K46" t="n">
-        <v>239.8891242919858</v>
+        <v>127.3513657602609</v>
       </c>
       <c r="L46" t="n">
-        <v>239.8891242919858</v>
+        <v>127.3513657602609</v>
       </c>
       <c r="M46" t="n">
-        <v>239.8891242919858</v>
+        <v>127.3513657602609</v>
       </c>
       <c r="N46" t="n">
-        <v>239.8891242919858</v>
+        <v>127.3513657602609</v>
       </c>
       <c r="O46" t="n">
-        <v>239.8891242919858</v>
+        <v>127.3513657602609</v>
       </c>
       <c r="P46" t="n">
-        <v>239.8891242919858</v>
+        <v>127.3513657602609</v>
       </c>
       <c r="Q46" t="n">
-        <v>239.8891242919858</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="R46" t="n">
-        <v>239.8891242919858</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="S46" t="n">
-        <v>239.8891242919858</v>
+        <v>239.8891242919841</v>
       </c>
       <c r="T46" t="n">
-        <v>227.1161423907489</v>
+        <v>227.1161423907475</v>
       </c>
       <c r="U46" t="n">
-        <v>159.3361407966683</v>
+        <v>159.3361407966672</v>
       </c>
       <c r="V46" t="n">
-        <v>117.9981984094156</v>
+        <v>117.9981984094148</v>
       </c>
       <c r="W46" t="n">
-        <v>51.2391589811394</v>
+        <v>51.23915898113882</v>
       </c>
       <c r="X46" t="n">
-        <v>39.38405693083986</v>
+        <v>39.38405693083954</v>
       </c>
       <c r="Y46" t="n">
-        <v>36.74626017744165</v>
+        <v>36.74626017744158</v>
       </c>
     </row>
   </sheetData>
@@ -9878,25 +9878,25 @@
         <v>421.3890363425141</v>
       </c>
       <c r="L26" t="n">
-        <v>541.6380693542562</v>
+        <v>541.6380693542561</v>
       </c>
       <c r="M26" t="n">
-        <v>527.9690662844961</v>
+        <v>95.67552786690339</v>
       </c>
       <c r="N26" t="n">
-        <v>168.5575943686598</v>
+        <v>522.187411961479</v>
       </c>
       <c r="O26" t="n">
-        <v>99.17432145262838</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>418.3383206229274</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>13.1634712931604</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>142.5960885106064</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>49.53708892351354</v>
       </c>
       <c r="P27" t="n">
-        <v>55.624665292331</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>59.17817075471706</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10036,16 +10036,16 @@
         <v>77.67194102076718</v>
       </c>
       <c r="L28" t="n">
-        <v>74.84944336390254</v>
+        <v>167.9047289208708</v>
       </c>
       <c r="M28" t="n">
-        <v>232.0625591822793</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>223.3630318978003</v>
       </c>
       <c r="O28" t="n">
-        <v>79.46394233070265</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>83.63942497583889</v>
@@ -10109,25 +10109,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>421.3890363425141</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>527.9690662844961</v>
+        <v>527.969066284496</v>
       </c>
       <c r="N29" t="n">
         <v>568.5510017355793</v>
       </c>
       <c r="O29" t="n">
-        <v>115.9363357377897</v>
+        <v>495.0402356415689</v>
       </c>
       <c r="P29" t="n">
-        <v>2.925826981020506</v>
+        <v>233.5926167955387</v>
       </c>
       <c r="Q29" t="n">
         <v>276.0094878578761</v>
@@ -10188,28 +10188,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>76.71955400614102</v>
+        <v>76.71955400614098</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>52.05064111562921</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>34.21620827668124</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>55.62466529233112</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>78.15265312299749</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10270,22 +10270,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K31" t="n">
-        <v>77.67194102076725</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>74.84944336390261</v>
+        <v>211.2171120040207</v>
       </c>
       <c r="M31" t="n">
-        <v>232.0625591822793</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>214.7070917652054</v>
+        <v>223.3630318978003</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>79.46394233070268</v>
       </c>
       <c r="P31" t="n">
-        <v>175.5085323082534</v>
+        <v>172.8403577011952</v>
       </c>
       <c r="Q31" t="n">
         <v>84.9458458910769</v>
@@ -10346,25 +10346,25 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>219.8255997236959</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K32" t="n">
-        <v>421.3890363425141</v>
+        <v>112.5514835405491</v>
       </c>
       <c r="L32" t="n">
-        <v>542.9595789155856</v>
+        <v>541.6380693542562</v>
       </c>
       <c r="M32" t="n">
-        <v>450.4660770585862</v>
+        <v>527.9690662844961</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>93.43707277407901</v>
       </c>
       <c r="O32" t="n">
         <v>495.0402356415689</v>
       </c>
       <c r="P32" t="n">
-        <v>60.96901873617097</v>
+        <v>418.3383206229274</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>76.71955400614095</v>
       </c>
       <c r="K33" t="n">
-        <v>66.98372024565205</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10449,7 +10449,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>59.17817075471706</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,22 +10507,22 @@
         <v>43.72711371954033</v>
       </c>
       <c r="K34" t="n">
-        <v>138.7668962480483</v>
+        <v>77.67194102076718</v>
       </c>
       <c r="L34" t="n">
-        <v>151.9797231048768</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>76.24414745277524</v>
+        <v>0.9641767459886381</v>
       </c>
       <c r="N34" t="n">
-        <v>223.3630318978003</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O34" t="n">
-        <v>211.9541662756472</v>
+        <v>114.6340644756851</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q34" t="n">
         <v>84.9458458910769</v>
@@ -10583,28 +10583,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>208.7099399314091</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>337.8003916511415</v>
       </c>
       <c r="N35" t="n">
-        <v>552.7653249920996</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>355.0830680164525</v>
       </c>
       <c r="Q35" t="n">
-        <v>276.0094878578761</v>
+        <v>80.31947812320441</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10753,10 +10753,10 @@
         <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>79.46394233070265</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -10820,31 +10820,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>219.8255997236959</v>
+        <v>69.66467583943691</v>
       </c>
       <c r="K38" t="n">
-        <v>354.6763473247884</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>337.8003916511415</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>335.561936558317</v>
       </c>
       <c r="O38" t="n">
-        <v>138.7506130683765</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>102.3556447267864</v>
       </c>
       <c r="Q38" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>52.05064111562917</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -10978,10 +10978,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>43.72711371954033</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>77.67194102076718</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -10993,13 +10993,13 @@
         <v>67.98250497112156</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>79.46394233070265</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>84.9458458910769</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K41" t="n">
-        <v>354.6763473247883</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11072,13 +11072,13 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>129.3050703900687</v>
+        <v>341.2991852368664</v>
       </c>
       <c r="P41" t="n">
-        <v>355.0830680164536</v>
+        <v>91.50045844340653</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R41" t="n">
         <v>85.43134583487716</v>
@@ -11160,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>59.17817075471706</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11215,25 +11215,25 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>43.72711371954033</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>77.67194102076718</v>
       </c>
       <c r="L43" t="n">
-        <v>74.84944336390254</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>67.98250497112156</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>83.63942497583889</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>219.8255997236959</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>354.6763473247883</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>20.14506566885217</v>
+        <v>337.8003916511415</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>188.3271419321636</v>
       </c>
       <c r="P44" t="n">
-        <v>141.6103351280298</v>
+        <v>355.0830680164526</v>
       </c>
       <c r="Q44" t="n">
-        <v>276.0094878578761</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>85.43134583487716</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11388,7 +11388,7 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>49.53708892351354</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -11464,13 +11464,13 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>79.46394233070265</v>
       </c>
       <c r="P46" t="n">
-        <v>83.63942497583889</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -23255,25 +23255,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>50.72562539147375</v>
+        <v>174.5285412724728</v>
       </c>
       <c r="C11" t="n">
-        <v>162.5398582301541</v>
+        <v>16.08988131948618</v>
       </c>
       <c r="D11" t="n">
-        <v>153.5211622746821</v>
+        <v>153.5211622746825</v>
       </c>
       <c r="E11" t="n">
-        <v>175.2632998445876</v>
+        <v>175.263299844588</v>
       </c>
       <c r="F11" t="n">
-        <v>194.4351159325648</v>
+        <v>194.4351159325652</v>
       </c>
       <c r="G11" t="n">
-        <v>49.39741975947989</v>
+        <v>195.8473966701477</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5829390575858</v>
+        <v>108.5829390575862</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,22 +23309,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>4.260172663732765</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>36.72024109999253</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>136.6369695040773</v>
       </c>
       <c r="X11" t="n">
-        <v>162.635276223355</v>
+        <v>16.18529931268708</v>
       </c>
       <c r="Y11" t="n">
-        <v>174.0318740195538</v>
+        <v>27.58189710888584</v>
       </c>
     </row>
     <row r="12">
@@ -23492,25 +23492,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>86.51581537328198</v>
+        <v>44.388604856466</v>
       </c>
       <c r="C14" t="n">
-        <v>162.5398582301543</v>
+        <v>162.5398582301546</v>
       </c>
       <c r="D14" t="n">
-        <v>153.5211622746822</v>
+        <v>153.5211622746826</v>
       </c>
       <c r="E14" t="n">
-        <v>28.81332293392035</v>
+        <v>28.81332293391975</v>
       </c>
       <c r="F14" t="n">
-        <v>47.98513902189751</v>
+        <v>194.4351159325653</v>
       </c>
       <c r="G14" t="n">
-        <v>195.8473966701475</v>
+        <v>195.8473966701478</v>
       </c>
       <c r="H14" t="n">
-        <v>108.582939057586</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>4.26017266373322</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>118.0349185126516</v>
+        <v>118.034918512652</v>
       </c>
       <c r="W14" t="n">
-        <v>143.3350179906085</v>
+        <v>143.3350179906089</v>
       </c>
       <c r="X14" t="n">
-        <v>162.6352762233552</v>
+        <v>16.18529931268714</v>
       </c>
       <c r="Y14" t="n">
-        <v>27.58189710888649</v>
+        <v>174.0318740195542</v>
       </c>
     </row>
     <row r="15">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>786411.9877907262</v>
+        <v>786411.9877907264</v>
       </c>
     </row>
     <row r="7">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>951508.5428735024</v>
+        <v>951508.5428735019</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>951508.5428735026</v>
+        <v>951508.5428735019</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>951508.5428735024</v>
+        <v>951508.5428735019</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>951508.5428735024</v>
+        <v>951508.542873502</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>440379.0631167</v>
+        <v>440379.0631167002</v>
       </c>
       <c r="C2" t="n">
-        <v>440379.0631167</v>
+        <v>440379.0631167001</v>
       </c>
       <c r="D2" t="n">
-        <v>440379.0631167002</v>
+        <v>440379.0631167001</v>
       </c>
       <c r="E2" t="n">
         <v>384839.9089188662</v>
@@ -26326,34 +26326,34 @@
         <v>384839.9089188659</v>
       </c>
       <c r="G2" t="n">
-        <v>441383.8347841548</v>
+        <v>441383.8347841547</v>
       </c>
       <c r="H2" t="n">
         <v>441383.8347841545</v>
       </c>
       <c r="I2" t="n">
-        <v>441383.8347841547</v>
+        <v>441383.8347841546</v>
       </c>
       <c r="J2" t="n">
-        <v>441383.834784155</v>
+        <v>441383.8347841551</v>
       </c>
       <c r="K2" t="n">
-        <v>441383.8347841552</v>
+        <v>441383.8347841551</v>
       </c>
       <c r="L2" t="n">
         <v>441383.834784155</v>
       </c>
       <c r="M2" t="n">
+        <v>441383.834784155</v>
+      </c>
+      <c r="N2" t="n">
         <v>441383.8347841547</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>441383.8347841551</v>
       </c>
-      <c r="O2" t="n">
-        <v>441383.8347841548</v>
-      </c>
       <c r="P2" t="n">
-        <v>441383.8347841548</v>
+        <v>441383.834784155</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>320303.8499715896</v>
+        <v>320303.8499715895</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>86866.35124606878</v>
+        <v>86866.35124606881</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>6.821210263296962e-11</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>172101.8825461394</v>
+        <v>172101.8825461392</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>86866.35124606871</v>
+        <v>86866.35124606869</v>
       </c>
       <c r="M3" t="n">
-        <v>34974.95817814877</v>
+        <v>34974.95817814906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>51921.40132280767</v>
+        <v>51921.40132280765</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,25 +26424,25 @@
         <v>437137.1652114342</v>
       </c>
       <c r="E4" t="n">
-        <v>337492.0798944828</v>
+        <v>337492.0798944827</v>
       </c>
       <c r="F4" t="n">
         <v>337492.0798944826</v>
       </c>
       <c r="G4" t="n">
-        <v>393534.1149340966</v>
+        <v>393534.1149340967</v>
       </c>
       <c r="H4" t="n">
         <v>393534.1149340967</v>
       </c>
       <c r="I4" t="n">
-        <v>393534.1149340968</v>
+        <v>393534.1149340967</v>
       </c>
       <c r="J4" t="n">
         <v>401705.6227511126</v>
       </c>
       <c r="K4" t="n">
-        <v>401705.6227511128</v>
+        <v>401705.6227511126</v>
       </c>
       <c r="L4" t="n">
         <v>401705.6227511126</v>
@@ -26457,7 +26457,7 @@
         <v>397296.6362691746</v>
       </c>
       <c r="P4" t="n">
-        <v>397296.6362691746</v>
+        <v>397296.6362691747</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>29852.47964145841</v>
+        <v>29852.47964145843</v>
       </c>
       <c r="F5" t="n">
-        <v>29852.47964145841</v>
+        <v>29852.47964145843</v>
       </c>
       <c r="G5" t="n">
-        <v>38980.9387450906</v>
+        <v>38980.93874509063</v>
       </c>
       <c r="H5" t="n">
-        <v>38980.9387450906</v>
+        <v>38980.93874509063</v>
       </c>
       <c r="I5" t="n">
-        <v>38980.93874509061</v>
+        <v>38980.93874509063</v>
       </c>
       <c r="J5" t="n">
         <v>54241.18391543768</v>
@@ -26500,16 +26500,16 @@
         <v>54241.18391543768</v>
       </c>
       <c r="M5" t="n">
-        <v>49012.41251811759</v>
+        <v>49012.41251811756</v>
       </c>
       <c r="N5" t="n">
-        <v>49012.41251811758</v>
+        <v>49012.41251811756</v>
       </c>
       <c r="O5" t="n">
-        <v>49012.41251811759</v>
+        <v>49012.41251811756</v>
       </c>
       <c r="P5" t="n">
-        <v>49012.41251811759</v>
+        <v>49012.41251811756</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-30385.70209473414</v>
+        <v>-30390.07066720122</v>
       </c>
       <c r="C6" t="n">
-        <v>-30385.70209473414</v>
+        <v>-30390.07066720128</v>
       </c>
       <c r="D6" t="n">
-        <v>-30385.70209473403</v>
+        <v>-30390.07066720128</v>
       </c>
       <c r="E6" t="n">
-        <v>-302808.5005886646</v>
+        <v>-303054.3437446005</v>
       </c>
       <c r="F6" t="n">
-        <v>17495.34938292499</v>
+        <v>17249.50622698886</v>
       </c>
       <c r="G6" t="n">
-        <v>-77997.57014110117</v>
+        <v>-77997.57014110149</v>
       </c>
       <c r="H6" t="n">
-        <v>8868.781104967253</v>
+        <v>8868.781104967224</v>
       </c>
       <c r="I6" t="n">
-        <v>8868.781104967245</v>
+        <v>8868.781104967282</v>
       </c>
       <c r="J6" t="n">
-        <v>-186664.8544285346</v>
+        <v>-186664.8544285343</v>
       </c>
       <c r="K6" t="n">
-        <v>-14562.97188239529</v>
+        <v>-14562.97188239518</v>
       </c>
       <c r="L6" t="n">
-        <v>-101429.323128464</v>
+        <v>-101429.3231284639</v>
       </c>
       <c r="M6" t="n">
-        <v>-39900.17218128634</v>
+        <v>-39900.17218128631</v>
       </c>
       <c r="N6" t="n">
-        <v>-4925.214003137145</v>
+        <v>-4925.214003137531</v>
       </c>
       <c r="O6" t="n">
-        <v>-56846.61532594504</v>
+        <v>-56846.61532594472</v>
       </c>
       <c r="P6" t="n">
-        <v>-4925.214003137444</v>
+        <v>-4925.214003137356</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="F2" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="G2" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="H2" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="I2" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="J2" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="K2" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="L2" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="M2" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="N2" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="O2" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="P2" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="3">
@@ -26762,7 +26762,7 @@
         <v>129.5955560102004</v>
       </c>
       <c r="K3" t="n">
-        <v>129.5955560102001</v>
+        <v>129.5955560102003</v>
       </c>
       <c r="L3" t="n">
         <v>129.5955560102004</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="F4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="G4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="H4" t="n">
-        <v>146.4499769106675</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="I4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="J4" t="n">
         <v>605.7782291286881</v>
@@ -26820,16 +26820,16 @@
         <v>605.7782291286881</v>
       </c>
       <c r="M4" t="n">
-        <v>459.3282522180206</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="N4" t="n">
-        <v>459.3282522180206</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="O4" t="n">
-        <v>459.3282522180206</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P4" t="n">
-        <v>459.3282522180206</v>
+        <v>459.3282522180198</v>
       </c>
     </row>
   </sheetData>
@@ -26914,7 +26914,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26926,10 +26926,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>64.90175165350948</v>
+        <v>64.90175165350956</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>108.5829390575859</v>
       </c>
       <c r="M2" t="n">
-        <v>43.71869772268596</v>
+        <v>43.71869772268633</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350959</v>
+        <v>64.90175165350956</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>459.3282522180206</v>
+        <v>459.3282522180197</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27151,7 +27151,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27163,10 +27163,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>64.90175165350948</v>
+        <v>64.90175165350956</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28087,76 +28087,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="C11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="D11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="E11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="F11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="G11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="H11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="I11" t="n">
-        <v>215.5745628503666</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J11" t="n">
-        <v>102.8816634704623</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="K11" t="n">
-        <v>112.5514835405491</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="L11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="M11" t="n">
         <v>95.67552786690339</v>
       </c>
       <c r="N11" t="n">
-        <v>215.5745628503666</v>
+        <v>119.7459124363676</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="P11" t="n">
-        <v>215.5745628503666</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q11" t="n">
-        <v>192.2903421915314</v>
+        <v>124.3626208658182</v>
       </c>
       <c r="R11" t="n">
-        <v>142.4367897946829</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="S11" t="n">
-        <v>173.4846907110955</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="T11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="U11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="V11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="W11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="X11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="Y11" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
     </row>
     <row r="12">
@@ -28190,7 +28190,7 @@
         <v>71.26452700773515</v>
       </c>
       <c r="J12" t="n">
-        <v>76.71955400614095</v>
+        <v>112.0039059477508</v>
       </c>
       <c r="K12" t="n">
         <v>66.98372024565205</v>
@@ -28208,7 +28208,7 @@
         <v>49.53708892351354</v>
       </c>
       <c r="P12" t="n">
-        <v>90.90901723393964</v>
+        <v>55.624665292331</v>
       </c>
       <c r="Q12" t="n">
         <v>78.15265312299746</v>
@@ -28223,13 +28223,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U12" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="V12" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="W12" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="X12" t="n">
         <v>195.9378182409833</v>
@@ -28248,13 +28248,13 @@
         <v>181.719814997536</v>
       </c>
       <c r="C13" t="n">
-        <v>215.5745628503666</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D13" t="n">
-        <v>215.5745628503666</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E13" t="n">
-        <v>215.5745628503666</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F13" t="n">
         <v>150.9558484244806</v>
@@ -28275,10 +28275,10 @@
         <v>77.67194102076718</v>
       </c>
       <c r="L13" t="n">
-        <v>74.84944336390254</v>
+        <v>150.6852242461712</v>
       </c>
       <c r="M13" t="n">
-        <v>76.24414745277524</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="N13" t="n">
         <v>67.98250497112156</v>
@@ -28287,7 +28287,7 @@
         <v>79.46394233070265</v>
       </c>
       <c r="P13" t="n">
-        <v>122.0318408843421</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q13" t="n">
         <v>103.5288848663845</v>
@@ -28299,22 +28299,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T13" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="U13" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="V13" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="W13" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="X13" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
       <c r="Y13" t="n">
-        <v>215.5745628503666</v>
+        <v>215.5745628503662</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="C14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="D14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="E14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="F14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="G14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="H14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="I14" t="n">
-        <v>151.0036693235603</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="J14" t="n">
-        <v>215.5745628503664</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="L14" t="n">
-        <v>215.5745628503664</v>
+        <v>109.3445309366635</v>
       </c>
       <c r="M14" t="n">
-        <v>215.5745628503664</v>
+        <v>198.9083460910311</v>
       </c>
       <c r="N14" t="n">
         <v>93.43707277407901</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5745628503664</v>
+        <v>99.17432145262838</v>
       </c>
       <c r="P14" t="n">
-        <v>112.9582042322145</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="Q14" t="n">
-        <v>146.0000707395932</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="R14" t="n">
-        <v>142.4367897946829</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="S14" t="n">
-        <v>173.4846907110955</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="T14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="U14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="V14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="W14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="X14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
     </row>
     <row r="15">
@@ -28415,7 +28415,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F15" t="n">
-        <v>133.3468600696244</v>
+        <v>168.6312120112344</v>
       </c>
       <c r="G15" t="n">
         <v>127.1624622715678</v>
@@ -28454,19 +28454,19 @@
         <v>101.0574772454339</v>
       </c>
       <c r="S15" t="n">
-        <v>181.3781348165132</v>
+        <v>146.0937828749041</v>
       </c>
       <c r="T15" t="n">
         <v>185.6746837770579</v>
       </c>
       <c r="U15" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="V15" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="W15" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="X15" t="n">
         <v>195.9378182409833</v>
@@ -28500,13 +28500,13 @@
         <v>166.9968542415478</v>
       </c>
       <c r="H16" t="n">
-        <v>155.7011408377324</v>
+        <v>172.69119966519</v>
       </c>
       <c r="I16" t="n">
         <v>135.7331106864344</v>
       </c>
       <c r="J16" t="n">
-        <v>169.8924671921951</v>
+        <v>86.6614087868646</v>
       </c>
       <c r="K16" t="n">
         <v>77.67194102076718</v>
@@ -28524,34 +28524,34 @@
         <v>79.46394233070265</v>
       </c>
       <c r="P16" t="n">
-        <v>215.5745628503664</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q16" t="n">
-        <v>103.5288848663845</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="R16" t="n">
-        <v>137.5187009483811</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="S16" t="n">
-        <v>207.4999652839304</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="T16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="U16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="V16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="W16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="X16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
       <c r="Y16" t="n">
-        <v>215.5745628503664</v>
+        <v>215.5745628503661</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="C17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="D17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="E17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="F17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="G17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="H17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="I17" t="n">
         <v>151.0036693235603</v>
@@ -28588,49 +28588,49 @@
         <v>102.8816634704623</v>
       </c>
       <c r="K17" t="n">
-        <v>112.5514835405491</v>
+        <v>253.0842896669483</v>
       </c>
       <c r="L17" t="n">
-        <v>145.5545706692085</v>
+        <v>109.3445309366635</v>
       </c>
       <c r="M17" t="n">
-        <v>242.1255047775708</v>
+        <v>95.67552786690339</v>
       </c>
       <c r="N17" t="n">
-        <v>93.43707277407901</v>
+        <v>239.8870496847474</v>
       </c>
       <c r="O17" t="n">
         <v>99.17432145262838</v>
       </c>
       <c r="P17" t="n">
-        <v>259.4081811428819</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q17" t="n">
-        <v>270.8125977764857</v>
+        <v>270.8125977764866</v>
       </c>
       <c r="R17" t="n">
         <v>142.4367897946829</v>
       </c>
       <c r="S17" t="n">
-        <v>173.4846907110955</v>
+        <v>319.9346676217639</v>
       </c>
       <c r="T17" t="n">
-        <v>324.1575019079524</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U17" t="n">
         <v>252.2948039503587</v>
       </c>
       <c r="V17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="W17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="X17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="Y17" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
     </row>
     <row r="18">
@@ -28798,31 +28798,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="C20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="D20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="E20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="F20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="G20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="H20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="I20" t="n">
-        <v>151.0036693235603</v>
+        <v>297.4536462342286</v>
       </c>
       <c r="J20" t="n">
-        <v>213.6789821560811</v>
+        <v>102.8816634704623</v>
       </c>
       <c r="K20" t="n">
         <v>112.5514835405491</v>
@@ -28831,43 +28831,43 @@
         <v>109.3445309366635</v>
       </c>
       <c r="M20" t="n">
-        <v>242.1255047775709</v>
+        <v>242.1255047775717</v>
       </c>
       <c r="N20" t="n">
         <v>93.43707277407901</v>
       </c>
       <c r="O20" t="n">
-        <v>99.17432145262838</v>
+        <v>167.8444296214339</v>
       </c>
       <c r="P20" t="n">
-        <v>259.408181142882</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q20" t="n">
         <v>124.3626208658182</v>
       </c>
       <c r="R20" t="n">
-        <v>142.4367897946829</v>
+        <v>288.8867667053512</v>
       </c>
       <c r="S20" t="n">
         <v>173.4846907110955</v>
       </c>
       <c r="T20" t="n">
-        <v>324.1575019079524</v>
+        <v>219.8347355140993</v>
       </c>
       <c r="U20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="V20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="W20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="X20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="Y20" t="n">
-        <v>324.1575019079524</v>
+        <v>324.1575019079521</v>
       </c>
     </row>
     <row r="21">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="C23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="D23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="E23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="F23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="G23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="H23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="I23" t="n">
         <v>151.0036693235603</v>
@@ -29062,25 +29062,25 @@
         <v>102.8816634704623</v>
       </c>
       <c r="K23" t="n">
-        <v>112.5514835405491</v>
+        <v>259.0014604512174</v>
       </c>
       <c r="L23" t="n">
-        <v>109.3445309366635</v>
+        <v>255.7945078473319</v>
       </c>
       <c r="M23" t="n">
         <v>95.67552786690339</v>
       </c>
       <c r="N23" t="n">
-        <v>204.2343914596975</v>
+        <v>93.43707277407901</v>
       </c>
       <c r="O23" t="n">
-        <v>245.6242983632958</v>
+        <v>99.17432145262838</v>
       </c>
       <c r="P23" t="n">
-        <v>259.4081811428819</v>
+        <v>112.9582042322145</v>
       </c>
       <c r="Q23" t="n">
-        <v>124.3626208658182</v>
+        <v>270.8125977764866</v>
       </c>
       <c r="R23" t="n">
         <v>142.4367897946829</v>
@@ -29089,22 +29089,22 @@
         <v>173.4846907110955</v>
       </c>
       <c r="T23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="U23" t="n">
-        <v>324.1575019079525</v>
+        <v>288.5048436829048</v>
       </c>
       <c r="V23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="W23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="X23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
       <c r="Y23" t="n">
-        <v>324.1575019079525</v>
+        <v>324.1575019079521</v>
       </c>
     </row>
     <row r="24">
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="D26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="E26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="G26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="H26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="I26" t="n">
         <v>151.0036693235603</v>
       </c>
       <c r="J26" t="n">
-        <v>173.4846907110954</v>
+        <v>163.3665900068395</v>
       </c>
       <c r="K26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="L26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="M26" t="n">
-        <v>173.4846907110954</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>173.4846907110954</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q26" t="n">
-        <v>173.4846907110954</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="S26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y26" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="27">
@@ -29360,7 +29360,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E27" t="n">
-        <v>145.5577298436975</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F27" t="n">
         <v>133.3468600696244</v>
@@ -29372,10 +29372,10 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I27" t="n">
-        <v>113.8156064946326</v>
+        <v>71.26452700773515</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.4472335769496</v>
       </c>
       <c r="K27" t="n">
         <v>66.98372024565205</v>
@@ -29387,40 +29387,40 @@
         <v>44.85432453608067</v>
       </c>
       <c r="N27" t="n">
-        <v>34.21620827668119</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O27" t="n">
-        <v>49.53708892351354</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>55.624665292331</v>
       </c>
       <c r="Q27" t="n">
-        <v>173.4846907110954</v>
+        <v>78.15265312299746</v>
       </c>
       <c r="R27" t="n">
-        <v>41.87930649071689</v>
+        <v>101.0574772454339</v>
       </c>
       <c r="S27" t="n">
         <v>146.0937828749041</v>
       </c>
       <c r="T27" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U27" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V27" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W27" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X27" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y27" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="28">
@@ -29430,16 +29430,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="C28" t="n">
         <v>167.9198098429365</v>
       </c>
       <c r="D28" t="n">
-        <v>173.4846907110954</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E28" t="n">
-        <v>173.4846907110954</v>
+        <v>150.4889240962943</v>
       </c>
       <c r="F28" t="n">
         <v>150.9558484244806</v>
@@ -29463,13 +29463,13 @@
         <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>123.8370400708571</v>
+        <v>76.24414745277524</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -29478,28 +29478,28 @@
         <v>18.58303897530759</v>
       </c>
       <c r="R28" t="n">
-        <v>173.4846907110954</v>
+        <v>137.5187009483811</v>
       </c>
       <c r="S28" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T28" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="U28" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="V28" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="W28" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="X28" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Y28" t="n">
-        <v>173.4846907110954</v>
+        <v>173.4846907110955</v>
       </c>
     </row>
     <row r="29">
@@ -29536,7 +29536,7 @@
         <v>173.4846907110955</v>
       </c>
       <c r="K29" t="n">
-        <v>173.4846907110955</v>
+        <v>112.5514835405491</v>
       </c>
       <c r="L29" t="n">
         <v>173.4846907110955</v>
@@ -29548,16 +29548,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="P29" t="n">
-        <v>110.0323772511941</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="Q29" t="n">
-        <v>173.4846907110955</v>
+        <v>145.4040868098461</v>
       </c>
       <c r="R29" t="n">
-        <v>173.4846907110955</v>
+        <v>57.0054439598057</v>
       </c>
       <c r="S29" t="n">
         <v>173.4846907110955</v>
@@ -29597,7 +29597,7 @@
         <v>137.45025063969</v>
       </c>
       <c r="E30" t="n">
-        <v>145.5577298436975</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="F30" t="n">
         <v>133.3468600696244</v>
@@ -29609,34 +29609,34 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I30" t="n">
-        <v>71.26452700773518</v>
+        <v>71.26452700773517</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
+        <v>66.98372024565208</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
         <v>173.4846907110955</v>
       </c>
-      <c r="L30" t="n">
-        <v>52.05064111562932</v>
-      </c>
-      <c r="M30" t="n">
-        <v>44.85432453608084</v>
-      </c>
       <c r="N30" t="n">
-        <v>144.6383606838584</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>49.53708892351369</v>
+        <v>49.53708892351358</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>115.9904611225386</v>
       </c>
       <c r="Q30" t="n">
-        <v>78.15265312299755</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>41.87930649071694</v>
+        <v>41.87930649071691</v>
       </c>
       <c r="S30" t="n">
         <v>146.0937828749041</v>
@@ -29670,10 +29670,10 @@
         <v>173.4846907110955</v>
       </c>
       <c r="C31" t="n">
-        <v>173.4846907110955</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D31" t="n">
-        <v>173.4846907110955</v>
+        <v>151.5411742405149</v>
       </c>
       <c r="E31" t="n">
         <v>150.4889240962943</v>
@@ -29688,31 +29688,31 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I31" t="n">
-        <v>135.7331106864345</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="J31" t="n">
-        <v>42.93429506732431</v>
+        <v>42.93429506732429</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>77.67194102076721</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>18.58303897530764</v>
+        <v>18.5830389753076</v>
       </c>
       <c r="R31" t="n">
         <v>137.5187009483811</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="C32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="D32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="E32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="F32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="G32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="H32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="I32" t="n">
-        <v>173.4846907110955</v>
+        <v>151.0036693235603</v>
       </c>
       <c r="J32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="M32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="N32" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>146.748532324457</v>
       </c>
       <c r="P32" t="n">
-        <v>51.98918549604348</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="Q32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="R32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="S32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="T32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="U32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="V32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="W32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="X32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="Y32" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
     </row>
     <row r="33">
@@ -29828,13 +29828,13 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C33" t="n">
-        <v>173.4846907110955</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D33" t="n">
-        <v>173.4846907110955</v>
+        <v>137.45025063969</v>
       </c>
       <c r="E33" t="n">
-        <v>173.4846907110955</v>
+        <v>145.5577298436975</v>
       </c>
       <c r="F33" t="n">
         <v>133.3468600696244</v>
@@ -29846,13 +29846,13 @@
         <v>96.24631459259477</v>
       </c>
       <c r="I33" t="n">
-        <v>71.26452700773515</v>
+        <v>170.3276244615921</v>
       </c>
       <c r="J33" t="n">
-        <v>76.71955400614095</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>66.98372024565205</v>
       </c>
       <c r="L33" t="n">
         <v>52.05064111562917</v>
@@ -29861,40 +29861,40 @@
         <v>44.85432453608067</v>
       </c>
       <c r="N33" t="n">
-        <v>173.4846907110955</v>
+        <v>34.21620827668119</v>
       </c>
       <c r="O33" t="n">
-        <v>49.83227374327622</v>
+        <v>49.53708892351354</v>
       </c>
       <c r="P33" t="n">
-        <v>55.624665292331</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="Q33" t="n">
         <v>78.15265312299746</v>
       </c>
       <c r="R33" t="n">
-        <v>101.0574772454339</v>
+        <v>41.87930649071689</v>
       </c>
       <c r="S33" t="n">
         <v>146.0937828749041</v>
       </c>
       <c r="T33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="U33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="V33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="W33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="X33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="Y33" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
     </row>
     <row r="34">
@@ -29904,7 +29904,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="C34" t="n">
         <v>167.9198098429365</v>
@@ -29922,7 +29922,7 @@
         <v>166.9968542415478</v>
       </c>
       <c r="H34" t="n">
-        <v>155.7011408377324</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="I34" t="n">
         <v>135.7331106864344</v>
@@ -29934,46 +29934,46 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>75.2799707067866</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="P34" t="n">
-        <v>173.4846907110955</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>18.58303897530759</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="R34" t="n">
-        <v>137.5187009483811</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="S34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="T34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="U34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="V34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="W34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="X34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
       <c r="Y34" t="n">
-        <v>173.4846907110955</v>
+        <v>173.4846907110954</v>
       </c>
     </row>
     <row r="35">
@@ -29983,76 +29983,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="C35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="D35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="E35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="F35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="G35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="H35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="I35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="J35" t="n">
-        <v>217.2033884337814</v>
+        <v>144.1626904182584</v>
       </c>
       <c r="K35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="L35" t="n">
-        <v>143.749617893988</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="M35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="O35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="P35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Q35" t="n">
-        <v>217.2033884337814</v>
+        <v>44.04314274261384</v>
       </c>
       <c r="R35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="S35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="T35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y35" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="36">
@@ -30065,7 +30065,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C36" t="n">
-        <v>191.3156938190373</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D36" t="n">
         <v>137.45025063969</v>
@@ -30110,7 +30110,7 @@
         <v>78.15265312299746</v>
       </c>
       <c r="R36" t="n">
-        <v>101.0574772454339</v>
+        <v>132.2865350330158</v>
       </c>
       <c r="S36" t="n">
         <v>146.0937828749041</v>
@@ -30122,10 +30122,10 @@
         <v>216.2915054838979</v>
       </c>
       <c r="V36" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W36" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X36" t="n">
         <v>195.9378182409833</v>
@@ -30153,7 +30153,7 @@
         <v>150.4889240962943</v>
       </c>
       <c r="F37" t="n">
-        <v>150.9558484244806</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="G37" t="n">
         <v>166.9968542415478</v>
@@ -30162,13 +30162,13 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I37" t="n">
-        <v>201.3964755103336</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="J37" t="n">
         <v>86.6614087868646</v>
       </c>
       <c r="K37" t="n">
-        <v>217.2033884337814</v>
+        <v>135.1489355010303</v>
       </c>
       <c r="L37" t="n">
         <v>74.84944336390254</v>
@@ -30177,10 +30177,10 @@
         <v>76.24414745277524</v>
       </c>
       <c r="N37" t="n">
-        <v>67.98250497112156</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>79.46394233070265</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>83.63942497583889</v>
@@ -30195,22 +30195,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y37" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="38">
@@ -30220,76 +30220,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="C38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="D38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="E38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="F38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="G38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="H38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="I38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="J38" t="n">
-        <v>217.2033884337813</v>
+        <v>33.21698763102536</v>
       </c>
       <c r="K38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="L38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="M38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="N38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="O38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="P38" t="n">
-        <v>191.9723227006378</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="R38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="S38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="T38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y38" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="39">
@@ -30302,7 +30302,7 @@
         <v>157.8252483534483</v>
       </c>
       <c r="C39" t="n">
-        <v>191.3156938190375</v>
+        <v>160.0866360314548</v>
       </c>
       <c r="D39" t="n">
         <v>137.45025063969</v>
@@ -30329,13 +30329,13 @@
         <v>66.98372024565205</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>52.05064111562917</v>
       </c>
       <c r="M39" t="n">
         <v>44.85432453608067</v>
       </c>
       <c r="N39" t="n">
-        <v>34.21620827668119</v>
+        <v>64.53338311437921</v>
       </c>
       <c r="O39" t="n">
         <v>49.53708892351354</v>
@@ -30356,13 +30356,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U39" t="n">
-        <v>216.2915054838979</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V39" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W39" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X39" t="n">
         <v>195.9378182409833</v>
@@ -30378,7 +30378,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>217.2033884337813</v>
+        <v>181.719814997536</v>
       </c>
       <c r="C40" t="n">
         <v>167.9198098429365</v>
@@ -30402,10 +30402,10 @@
         <v>135.7331106864344</v>
       </c>
       <c r="J40" t="n">
-        <v>217.2033884337813</v>
+        <v>42.93429506732427</v>
       </c>
       <c r="K40" t="n">
-        <v>107.1377770246682</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>74.84944336390254</v>
@@ -30417,37 +30417,37 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>79.46394233070265</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>83.63942497583889</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Q40" t="n">
-        <v>103.5288848663845</v>
+        <v>18.58303897530759</v>
       </c>
       <c r="R40" t="n">
-        <v>137.5187009483811</v>
+        <v>199.4461265774984</v>
       </c>
       <c r="S40" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="T40" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U40" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V40" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W40" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X40" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y40" t="n">
-        <v>217.2033884337813</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="41">
@@ -30457,76 +30457,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="C41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="D41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="E41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="F41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="G41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="H41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="I41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="J41" t="n">
-        <v>199.7330951493792</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="K41" t="n">
-        <v>217.2033884337814</v>
+        <v>112.5514835405491</v>
       </c>
       <c r="L41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="M41" t="n">
-        <v>217.2033884337814</v>
+        <v>98.33550776078138</v>
       </c>
       <c r="N41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="O41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="P41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Q41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="R41" t="n">
-        <v>57.00544395980567</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="S41" t="n">
-        <v>217.2033884337814</v>
+        <v>173.4846907110955</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y41" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="42">
@@ -30548,7 +30548,7 @@
         <v>145.5577298436975</v>
       </c>
       <c r="F42" t="n">
-        <v>163.6640349073233</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G42" t="n">
         <v>127.1624622715678</v>
@@ -30584,7 +30584,7 @@
         <v>78.15265312299746</v>
       </c>
       <c r="R42" t="n">
-        <v>41.87930649071689</v>
+        <v>132.2865350330158</v>
       </c>
       <c r="S42" t="n">
         <v>146.0937828749041</v>
@@ -30593,13 +30593,13 @@
         <v>185.6746837770579</v>
       </c>
       <c r="U42" t="n">
-        <v>217.2033884337814</v>
+        <v>216.2915054838979</v>
       </c>
       <c r="V42" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W42" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X42" t="n">
         <v>195.9378182409833</v>
@@ -30636,28 +30636,28 @@
         <v>155.7011408377324</v>
       </c>
       <c r="I43" t="n">
-        <v>217.2033884337814</v>
+        <v>135.7331106864344</v>
       </c>
       <c r="J43" t="n">
-        <v>42.93429506732427</v>
+        <v>86.6614087868646</v>
       </c>
       <c r="K43" t="n">
-        <v>77.67194102076718</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>74.84944336390254</v>
       </c>
       <c r="M43" t="n">
-        <v>190.2652587924904</v>
+        <v>76.24414745277524</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>67.98250497112156</v>
       </c>
       <c r="O43" t="n">
-        <v>79.46394233070265</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>141.39136795982</v>
       </c>
       <c r="Q43" t="n">
         <v>103.5288848663845</v>
@@ -30666,25 +30666,25 @@
         <v>137.5187009483811</v>
       </c>
       <c r="S43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="T43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y43" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="44">
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="C44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="D44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="E44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="F44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="G44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="H44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="I44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="J44" t="n">
-        <v>217.2033884337814</v>
+        <v>214.5924232407322</v>
       </c>
       <c r="K44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="L44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="M44" t="n">
-        <v>75.53046219805123</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="N44" t="n">
-        <v>93.43707277407901</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="O44" t="n">
-        <v>217.2033884337814</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Q44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="R44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="S44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y44" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
     <row r="45">
@@ -30809,10 +30809,10 @@
         <v>44.85432453608067</v>
       </c>
       <c r="N45" t="n">
-        <v>65.44526606426361</v>
+        <v>34.21620827668119</v>
       </c>
       <c r="O45" t="n">
-        <v>49.53708892351354</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>55.624665292331</v>
@@ -30827,16 +30827,16 @@
         <v>146.0937828749041</v>
       </c>
       <c r="T45" t="n">
-        <v>185.6746837770579</v>
+        <v>216.9037415646398</v>
       </c>
       <c r="U45" t="n">
         <v>216.2915054838979</v>
       </c>
       <c r="V45" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W45" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X45" t="n">
         <v>195.9378182409833</v>
@@ -30855,7 +30855,7 @@
         <v>181.719814997536</v>
       </c>
       <c r="C46" t="n">
-        <v>217.2033884337814</v>
+        <v>167.9198098429365</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>217.2033884337814</v>
+        <v>166.9968542415478</v>
       </c>
       <c r="H46" t="n">
         <v>155.7011408377324</v>
@@ -30879,7 +30879,7 @@
         <v>86.6614087868646</v>
       </c>
       <c r="K46" t="n">
-        <v>183.3766404746018</v>
+        <v>169.1922496902816</v>
       </c>
       <c r="L46" t="n">
         <v>74.84944336390254</v>
@@ -30888,16 +30888,16 @@
         <v>76.24414745277524</v>
       </c>
       <c r="N46" t="n">
-        <v>67.98250497112156</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>79.46394233070265</v>
+        <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>83.63942497583889</v>
       </c>
       <c r="Q46" t="n">
-        <v>103.5288848663845</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="R46" t="n">
         <v>137.5187009483811</v>
@@ -30906,22 +30906,22 @@
         <v>207.4999652839304</v>
       </c>
       <c r="T46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="U46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="V46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="W46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="X46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
       <c r="Y46" t="n">
-        <v>217.2033884337814</v>
+        <v>217.2033884337817</v>
       </c>
     </row>
   </sheetData>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5209871598400001</v>
+        <v>0.520987159840001</v>
       </c>
       <c r="H29" t="n">
-        <v>5.335559750711402</v>
+        <v>5.335559750711411</v>
       </c>
       <c r="I29" t="n">
-        <v>20.08535747973162</v>
+        <v>20.08535747973166</v>
       </c>
       <c r="J29" t="n">
-        <v>44.21813395747024</v>
+        <v>44.21813395747032</v>
       </c>
       <c r="K29" t="n">
-        <v>66.27152043349746</v>
+        <v>66.27152043349757</v>
       </c>
       <c r="L29" t="n">
-        <v>82.21568122645088</v>
+        <v>82.21568122645103</v>
       </c>
       <c r="M29" t="n">
-        <v>91.48078663025548</v>
+        <v>91.48078663025564</v>
       </c>
       <c r="N29" t="n">
-        <v>92.96104139815088</v>
+        <v>92.96104139815105</v>
       </c>
       <c r="O29" t="n">
-        <v>87.78047532749189</v>
+        <v>87.78047532749203</v>
       </c>
       <c r="P29" t="n">
-        <v>74.91860481894186</v>
+        <v>74.918604818942</v>
       </c>
       <c r="Q29" t="n">
-        <v>56.26075215717184</v>
+        <v>56.26075215717194</v>
       </c>
       <c r="R29" t="n">
-        <v>32.72645967929943</v>
+        <v>32.72645967929949</v>
       </c>
       <c r="S29" t="n">
-        <v>11.87199490485401</v>
+        <v>11.87199490485403</v>
       </c>
       <c r="T29" t="n">
-        <v>2.280621292199601</v>
+        <v>2.280621292199605</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04167897278719999</v>
+        <v>0.04167897278720007</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2787527053804305</v>
+        <v>0.278752705380431</v>
       </c>
       <c r="H30" t="n">
-        <v>2.692164286174158</v>
+        <v>2.692164286174162</v>
       </c>
       <c r="I30" t="n">
-        <v>9.597406742264821</v>
+        <v>9.597406742264837</v>
       </c>
       <c r="J30" t="n">
-        <v>26.33601766052567</v>
+        <v>26.33601766052572</v>
       </c>
       <c r="K30" t="n">
-        <v>45.01244892101451</v>
+        <v>45.01244892101459</v>
       </c>
       <c r="L30" t="n">
-        <v>60.52479245551847</v>
+        <v>60.52479245551857</v>
       </c>
       <c r="M30" t="n">
-        <v>70.62957802555906</v>
+        <v>70.62957802555917</v>
       </c>
       <c r="N30" t="n">
-        <v>72.49893279102696</v>
+        <v>72.49893279102707</v>
       </c>
       <c r="O30" t="n">
-        <v>66.32235968759741</v>
+        <v>66.32235968759753</v>
       </c>
       <c r="P30" t="n">
-        <v>53.2295407318122</v>
+        <v>53.22954073181229</v>
       </c>
       <c r="Q30" t="n">
-        <v>35.58253832189495</v>
+        <v>35.58253832189501</v>
       </c>
       <c r="R30" t="n">
-        <v>17.30711972528673</v>
+        <v>17.30711972528676</v>
       </c>
       <c r="S30" t="n">
-        <v>5.177709242482992</v>
+        <v>5.177709242483001</v>
       </c>
       <c r="T30" t="n">
-        <v>1.123569018616735</v>
+        <v>1.123569018616736</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01833899377502832</v>
+        <v>0.01833899377502836</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2336969042806887</v>
+        <v>0.2336969042806891</v>
       </c>
       <c r="H31" t="n">
-        <v>2.077777930786489</v>
+        <v>2.077777930786492</v>
       </c>
       <c r="I31" t="n">
-        <v>7.027903266913804</v>
+        <v>7.027903266913817</v>
       </c>
       <c r="J31" t="n">
-        <v>16.52237113264469</v>
+        <v>16.52237113264472</v>
       </c>
       <c r="K31" t="n">
-        <v>27.15133124279274</v>
+        <v>27.15133124279278</v>
       </c>
       <c r="L31" t="n">
-        <v>34.74435611460349</v>
+        <v>34.74435611460355</v>
       </c>
       <c r="M31" t="n">
-        <v>36.63305200465377</v>
+        <v>36.63305200465383</v>
       </c>
       <c r="N31" t="n">
-        <v>35.76199990688033</v>
+        <v>35.76199990688038</v>
       </c>
       <c r="O31" t="n">
-        <v>33.03199516141954</v>
+        <v>33.03199516141959</v>
       </c>
       <c r="P31" t="n">
-        <v>28.26457831409347</v>
+        <v>28.26457831409352</v>
       </c>
       <c r="Q31" t="n">
-        <v>19.56892895754022</v>
+        <v>19.56892895754025</v>
       </c>
       <c r="R31" t="n">
-        <v>10.50786262338442</v>
+        <v>10.50786262338444</v>
       </c>
       <c r="S31" t="n">
-        <v>4.07269968641891</v>
+        <v>4.072699686418917</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9985231364720333</v>
+        <v>0.9985231364720351</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01274710386985576</v>
+        <v>0.01274710386985578</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -35404,37 +35404,37 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>64.57089352680629</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>112.6928993799039</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>103.0230793098171</v>
       </c>
       <c r="L11" t="n">
-        <v>106.230031913703</v>
+        <v>106.2300319137026</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>122.1374900762875</v>
+        <v>26.30883966228856</v>
       </c>
       <c r="O11" t="n">
-        <v>116.4002413977382</v>
+        <v>116.4002413977378</v>
       </c>
       <c r="P11" t="n">
-        <v>102.6163586181521</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>67.92772132571315</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>73.13777305568333</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>42.08987213927063</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -35486,7 +35486,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>35.28435194160986</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -35504,7 +35504,7 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>35.28435194160863</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35544,13 +35544,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>47.65475300743006</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>64.03338860985167</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>65.08563875407222</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35571,10 +35571,10 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>75.83578088226862</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>139.3304153975909</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>38.39241590850317</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35641,37 +35641,37 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>64.57089352680583</v>
       </c>
       <c r="J14" t="n">
-        <v>112.6928993799041</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>103.0230793098173</v>
+        <v>103.023079309817</v>
       </c>
       <c r="L14" t="n">
-        <v>106.2300319137029</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>119.899034983463</v>
+        <v>103.2328182241278</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>116.400241397738</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>102.6163586181517</v>
       </c>
       <c r="Q14" t="n">
-        <v>21.63744987377491</v>
+        <v>91.21194198454786</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>73.13777305568327</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>42.08987213927058</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -35711,7 +35711,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>35.28435194161003</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -35750,7 +35750,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>35.28435194160907</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -35796,13 +35796,13 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>16.99005882745757</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>83.23105840533044</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -35820,16 +35820,16 @@
         <v>0</v>
       </c>
       <c r="P16" t="n">
-        <v>131.9351378745275</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>112.0456779839816</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>78.05586190198498</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>8.074597566435719</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -35884,34 +35884,34 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>140.5328061263992</v>
       </c>
       <c r="L17" t="n">
-        <v>36.21003973254501</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>146.4499769106674</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="T17" t="n">
-        <v>104.3227663938531</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -36115,10 +36115,10 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="J20" t="n">
-        <v>110.7973186856188</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -36127,31 +36127,31 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>146.4499769106675</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>68.67010816880554</v>
       </c>
       <c r="P20" t="n">
-        <v>146.4499769106675</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>104.3227663938531</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>71.8626979575937</v>
+        <v>71.86269795759341</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36358,25 +36358,25 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>110.7973186856185</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>146.4499769106674</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>146.4499769106683</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,10 +36385,10 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>104.3227663938532</v>
+        <v>104.3227663938528</v>
       </c>
       <c r="U23" t="n">
-        <v>71.86269795759381</v>
+        <v>36.21003973254611</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>70.60302724063311</v>
+        <v>60.48492653637718</v>
       </c>
       <c r="K26" t="n">
         <v>482.3222435130605</v>
@@ -36601,22 +36601,22 @@
         <v>605.7782291286881</v>
       </c>
       <c r="M26" t="n">
-        <v>605.7782291286881</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>248.6052123056762</v>
+        <v>428.7503391874</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>74.31036925846708</v>
       </c>
       <c r="P26" t="n">
-        <v>305.3801163907129</v>
+        <v>478.8648071018084</v>
       </c>
       <c r="Q26" t="n">
-        <v>49.12206984527715</v>
+        <v>151.6468669920578</v>
       </c>
       <c r="R26" t="n">
-        <v>31.04790091641256</v>
+        <v>116.4792467512898</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36656,7 +36656,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>27.92696086739798</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>55.71455078005787</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>65.87653450446548</v>
+        <v>49.72767957080869</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>139.2684824344143</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,7 +36692,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.33203758809793</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36732,10 +36732,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>21.94351647058051</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>22.99576661480106</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -36756,16 +36756,16 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>93.05528555696822</v>
       </c>
       <c r="M28" t="n">
-        <v>279.6554518003612</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>155.3805269266788</v>
+        <v>328.8652176377742</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>94.0207483803928</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>35.96598976271427</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>22.48102138753522</v>
+        <v>22.48102138753525</v>
       </c>
       <c r="J29" t="n">
-        <v>290.4286269643291</v>
+        <v>70.60302724063322</v>
       </c>
       <c r="K29" t="n">
-        <v>482.3222435130605</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>64.14015977443181</v>
+        <v>64.14015977443195</v>
       </c>
       <c r="M29" t="n">
         <v>605.7782291286881</v>
       </c>
       <c r="N29" t="n">
-        <v>475.1139289615001</v>
+        <v>475.1139289615003</v>
       </c>
       <c r="O29" t="n">
-        <v>16.76201428516112</v>
+        <v>569.350604900036</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>294.1191032744198</v>
       </c>
       <c r="Q29" t="n">
-        <v>325.1315577031532</v>
+        <v>297.0509538019039</v>
       </c>
       <c r="R29" t="n">
-        <v>116.4792467512898</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36893,7 +36893,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>27.92696086739807</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>106.5009704654434</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>128.6303661750148</v>
       </c>
       <c r="N30" t="n">
-        <v>110.4221524071771</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>60.36579583020759</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36966,10 +36966,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>5.564880868159037</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>21.94351647058065</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36984,7 +36984,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>37.7515800246611</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -36993,19 +36993,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>136.3676686401182</v>
       </c>
       <c r="M31" t="n">
-        <v>155.818411729504</v>
+        <v>97.24054325832027</v>
       </c>
       <c r="N31" t="n">
-        <v>146.7245867940837</v>
+        <v>155.3805269266787</v>
       </c>
       <c r="O31" t="n">
-        <v>94.0207483803928</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>91.86910733241447</v>
+        <v>89.20093272535632</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37063,37 +37063,37 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>22.48102138753518</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>290.4286269643291</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>482.3222435130605</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>433.615047978922</v>
+        <v>605.7782291286881</v>
       </c>
       <c r="M32" t="n">
-        <v>528.2752399027783</v>
+        <v>605.7782291286881</v>
       </c>
       <c r="N32" t="n">
-        <v>80.04761793701644</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>395.8659141889405</v>
+        <v>542.6144465133975</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>478.8648071018084</v>
       </c>
       <c r="Q32" t="n">
-        <v>49.12206984527721</v>
+        <v>49.12206984527715</v>
       </c>
       <c r="R32" t="n">
-        <v>116.4792467512898</v>
+        <v>116.4792467512897</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>-1.35003119794419e-13</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
@@ -37124,13 +37124,13 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>13.39805467964061</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>36.03444007140541</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>27.92696086739798</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>99.06309745385688</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -37157,13 +37157,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>139.2684824344143</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0.2951848197626831</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>117.8600254187644</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37218,7 +37218,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>17.78354987336298</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37227,28 +37227,28 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>61.0949552272811</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>77.13027974097427</v>
+        <v>98.63524734719286</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>155.3805269266788</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>132.4902239449445</v>
+        <v>208.6548128560779</v>
       </c>
       <c r="P34" t="n">
-        <v>89.84526573525656</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>154.9016517357878</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>35.96598976271427</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,37 +37300,37 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>66.19971911022114</v>
+        <v>66.19971911022145</v>
       </c>
       <c r="J35" t="n">
-        <v>114.3217249633191</v>
+        <v>261.106626671492</v>
       </c>
       <c r="K35" t="n">
-        <v>104.6519048932323</v>
+        <v>104.6519048932326</v>
       </c>
       <c r="L35" t="n">
-        <v>243.1150268887336</v>
+        <v>107.8588574971182</v>
       </c>
       <c r="M35" t="n">
-        <v>121.527860566878</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="N35" t="n">
-        <v>459.3282522180206</v>
+        <v>123.7663156597027</v>
       </c>
       <c r="O35" t="n">
-        <v>118.029066981153</v>
+        <v>118.0290669811533</v>
       </c>
       <c r="P35" t="n">
-        <v>104.245184201567</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="Q35" t="n">
-        <v>368.8502554258392</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>74.76659863909858</v>
+        <v>74.76659863909889</v>
       </c>
       <c r="S35" t="n">
-        <v>43.71869772268588</v>
+        <v>43.71869772268619</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -37361,7 +37361,7 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>31.22905778758248</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -37406,7 +37406,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>31.22905778758184</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37449,7 +37449,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>66.24754000930108</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -37458,13 +37458,13 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>65.6633648238992</v>
+        <v>81.4702777473473</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>139.5314474130142</v>
+        <v>57.47699448026314</v>
       </c>
       <c r="L37" t="n">
         <v>0</v>
@@ -37537,37 +37537,37 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>66.19971911022105</v>
+        <v>66.19971911022145</v>
       </c>
       <c r="J38" t="n">
-        <v>334.147324687015</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>459.3282522180206</v>
+        <v>104.6519048932326</v>
       </c>
       <c r="L38" t="n">
-        <v>107.8588574971178</v>
+        <v>107.8588574971182</v>
       </c>
       <c r="M38" t="n">
-        <v>121.5278605668779</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="N38" t="n">
-        <v>123.7663156597023</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="O38" t="n">
-        <v>256.7796800495294</v>
+        <v>118.0290669811533</v>
       </c>
       <c r="P38" t="n">
-        <v>79.01411846842339</v>
+        <v>206.6008289283537</v>
       </c>
       <c r="Q38" t="n">
-        <v>151.6468669920578</v>
+        <v>92.84076756796348</v>
       </c>
       <c r="R38" t="n">
-        <v>74.76659863909849</v>
+        <v>160.1979444739761</v>
       </c>
       <c r="S38" t="n">
-        <v>43.7186977226858</v>
+        <v>43.71869772268619</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -37598,7 +37598,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>31.22905778758265</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -37631,7 +37631,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>30.31717483769802</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37652,7 +37652,7 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>0.9118829498838287</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -37674,7 +37674,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>35.48357343624531</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>130.5419796469167</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>29.46583600390101</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -37716,16 +37716,16 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>133.5639634579428</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>61.92742562911733</v>
       </c>
       <c r="S40" t="n">
-        <v>9.70342314985094</v>
+        <v>9.703423149851337</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37774,37 +37774,37 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>66.19971911022117</v>
+        <v>66.19971911022145</v>
       </c>
       <c r="J41" t="n">
-        <v>96.85143167891687</v>
+        <v>334.1473246870153</v>
       </c>
       <c r="K41" t="n">
-        <v>459.3282522180206</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>107.8588574971179</v>
+        <v>107.8588574971182</v>
       </c>
       <c r="M41" t="n">
-        <v>121.527860566878</v>
+        <v>2.659979893877988</v>
       </c>
       <c r="N41" t="n">
-        <v>123.7663156597024</v>
+        <v>123.7663156597027</v>
       </c>
       <c r="O41" t="n">
-        <v>247.3341373712217</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="P41" t="n">
-        <v>459.3282522180206</v>
+        <v>195.7456426449738</v>
       </c>
       <c r="Q41" t="n">
-        <v>92.8407675679632</v>
+        <v>368.8502554258396</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>160.1979444739761</v>
       </c>
       <c r="S41" t="n">
-        <v>43.71869772268591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -37844,7 +37844,7 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>30.31717483769889</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -37880,7 +37880,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>31.22905778758184</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37889,7 +37889,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0.9118829498835445</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -37932,7 +37932,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.47027774734701</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37944,16 +37944,16 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>114.0211113397152</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>137.7394461030791</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>57.75194298398111</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -37962,7 +37962,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>9.703423149851053</v>
+        <v>9.703423149851337</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -38011,37 +38011,37 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>66.19971911022117</v>
+        <v>66.19971911022142</v>
       </c>
       <c r="J44" t="n">
-        <v>334.1473246870151</v>
+        <v>111.7107597702699</v>
       </c>
       <c r="K44" t="n">
-        <v>459.3282522180206</v>
+        <v>104.6519048932326</v>
       </c>
       <c r="L44" t="n">
-        <v>107.8588574971179</v>
+        <v>107.8588574971182</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>123.7663156597027</v>
       </c>
       <c r="O44" t="n">
-        <v>118.0290669811531</v>
+        <v>89.15282047953519</v>
       </c>
       <c r="P44" t="n">
-        <v>245.8555193295967</v>
+        <v>459.3282522180198</v>
       </c>
       <c r="Q44" t="n">
-        <v>368.8502554258392</v>
+        <v>92.84076756796345</v>
       </c>
       <c r="R44" t="n">
-        <v>74.7665986390986</v>
+        <v>160.197944473976</v>
       </c>
       <c r="S44" t="n">
-        <v>43.71869772268591</v>
+        <v>43.71869772268617</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38105,7 +38105,7 @@
         <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>31.22905778758242</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38123,7 +38123,7 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>31.2290577875819</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -38151,7 +38151,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>49.28357859084494</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -38163,7 +38163,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>50.20653419223365</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>105.7046994538346</v>
+        <v>91.52030866951445</v>
       </c>
       <c r="L46" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>113.6745035673972</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
